--- a/data/Nils_250221_20210225-101635/Results.xlsx
+++ b/data/Nils_250221_20210225-101635/Results.xlsx
@@ -939,7 +939,7 @@
     <col min="18" max="18" width="21.7109375" customWidth="1"/>
     <col min="19" max="19" width="23.7109375" customWidth="1"/>
     <col min="20" max="20" width="20.7109375" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.7109375" customWidth="1"/>
     <col min="22" max="22" width="20.7109375" customWidth="1"/>
     <col min="23" max="23" width="21.7109375" customWidth="1"/>
     <col min="24" max="24" width="20.7109375" customWidth="1"/>
@@ -1125,10 +1125,10 @@
         <v>0.150723928303017</v>
       </c>
       <c r="U3" s="4">
-        <v>1.320946098557838</v>
+        <v>1.320948087526761</v>
       </c>
       <c r="V3" s="4">
-        <v>0.3060077741037006</v>
+        <v>0.3060073134943528</v>
       </c>
       <c r="W3" s="4">
         <v>0.1773238600266967</v>
@@ -1137,10 +1137,10 @@
         <v>0.5220643806217672</v>
       </c>
       <c r="Y3" s="4">
-        <v>0.2350229197655485</v>
+        <v>0.235023292489963</v>
       </c>
       <c r="Z3" s="4">
-        <v>0.5173216242739743</v>
+        <v>0.5173214114714446</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -1205,10 +1205,10 @@
         <v>0.06587355863436981</v>
       </c>
       <c r="U4">
-        <v>0.003751228668355174</v>
+        <v>0.003753217049396492</v>
       </c>
       <c r="V4">
-        <v>1.626328518811927</v>
+        <v>1.625466882474972</v>
       </c>
       <c r="W4">
         <v>0.3902057875413185</v>
@@ -1217,10 +1217,10 @@
         <v>0.4850975247503</v>
       </c>
       <c r="Y4">
-        <v>0.001473012409628235</v>
+        <v>0.001473786502812541</v>
       </c>
       <c r="Z4">
-        <v>1.760598982626331</v>
+        <v>1.759794056786792</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="4" customFormat="1">
@@ -1282,10 +1282,10 @@
         <v>0.1536354968842174</v>
       </c>
       <c r="U5" s="4">
-        <v>1.321187919201051</v>
+        <v>1.321189907788415</v>
       </c>
       <c r="V5" s="4">
-        <v>0.2966434367813083</v>
+        <v>0.2966429908788535</v>
       </c>
       <c r="W5" s="4">
         <v>0.178531574599959</v>
@@ -1294,10 +1294,10 @@
         <v>0.3809863365794904</v>
       </c>
       <c r="Y5" s="4">
-        <v>0.2361709823197491</v>
+        <v>0.2361713386449745</v>
       </c>
       <c r="Z5" s="4">
-        <v>0.378656794723942</v>
+        <v>0.3786565527152522</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -1362,10 +1362,10 @@
         <v>0.0841434266715886</v>
       </c>
       <c r="U6">
-        <v>0.007997031474588363</v>
+        <v>0.00799901972189606</v>
       </c>
       <c r="V6">
-        <v>0.9655368684566756</v>
+        <v>0.965296865843396</v>
       </c>
       <c r="W6">
         <v>0.1927019369962816</v>
@@ -1374,10 +1374,10 @@
         <v>0.2926344533734293</v>
       </c>
       <c r="Y6">
-        <v>0.001539840312304982</v>
+        <v>0.001540222474305018</v>
       </c>
       <c r="Z6">
-        <v>1.01236950144155</v>
+        <v>1.012146500227368</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="4" customFormat="1">
@@ -1439,10 +1439,10 @@
         <v>0.1491184944087578</v>
       </c>
       <c r="U7" s="4">
-        <v>1.320105125478525</v>
+        <v>1.320107113994624</v>
       </c>
       <c r="V7" s="4">
-        <v>0.2854462222521955</v>
+        <v>0.2854457918826794</v>
       </c>
       <c r="W7" s="4">
         <v>0.1780193329665596</v>
@@ -1451,10 +1451,10 @@
         <v>0.5034499833607</v>
       </c>
       <c r="Y7" s="4">
-        <v>0.2351810107556532</v>
+        <v>0.2351813653888696</v>
       </c>
       <c r="Z7" s="4">
-        <v>0.4348626584506936</v>
+        <v>0.4348627137034843</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1519,10 +1519,10 @@
         <v>0.06532007118467584</v>
       </c>
       <c r="U8">
-        <v>0.008772765872473064</v>
+        <v>0.008774754252940668</v>
       </c>
       <c r="V8">
-        <v>1.005466958928373</v>
+        <v>1.005239137179149</v>
       </c>
       <c r="W8">
         <v>0.1887872490927404</v>
@@ -1531,10 +1531,10 @@
         <v>0.2626803934313284</v>
       </c>
       <c r="Y8">
-        <v>0.001654065746500321</v>
+        <v>0.001654442344015474</v>
       </c>
       <c r="Z8">
-        <v>1.08201899306626</v>
+        <v>1.081828161608998</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="4" customFormat="1">
@@ -1596,10 +1596,10 @@
         <v>0.2002218370685834</v>
       </c>
       <c r="U9" s="4">
-        <v>1.321381995253645</v>
+        <v>1.321383983749202</v>
       </c>
       <c r="V9" s="4">
-        <v>0.3291433398358259</v>
+        <v>0.3291428443811557</v>
       </c>
       <c r="W9" s="4">
         <v>0.1785084657915787</v>
@@ -1608,10 +1608,10 @@
         <v>0.7195552648457435</v>
       </c>
       <c r="Y9" s="4">
-        <v>0.2370731273352465</v>
+        <v>0.2370734835371542</v>
       </c>
       <c r="Z9" s="4">
-        <v>0.6737926412275616</v>
+        <v>0.6737925747004632</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1676,10 +1676,10 @@
         <v>0.06176631113771581</v>
       </c>
       <c r="U10">
-        <v>0.011148229350472</v>
+        <v>0.01115021763499328</v>
       </c>
       <c r="V10">
-        <v>0.7944685991716693</v>
+        <v>0.7943269013885956</v>
       </c>
       <c r="W10">
         <v>0.2936872899123126</v>
@@ -1688,10 +1688,10 @@
         <v>0.3360573715860993</v>
       </c>
       <c r="Y10">
-        <v>0.003288980973108082</v>
+        <v>0.003289580199064019</v>
       </c>
       <c r="Z10">
-        <v>0.7625862833591343</v>
+        <v>0.7624518867062802</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="4" customFormat="1">
@@ -1753,10 +1753,10 @@
         <v>0.171126871078684</v>
       </c>
       <c r="U11" s="4">
-        <v>1.321930295374194</v>
+        <v>1.321932283906519</v>
       </c>
       <c r="V11" s="4">
-        <v>0.2869594062577907</v>
+        <v>0.2869589745090427</v>
       </c>
       <c r="W11" s="4">
         <v>0.1787041313160304</v>
@@ -1765,10 +1765,10 @@
         <v>0.6016353926773823</v>
       </c>
       <c r="Y11" s="4">
-        <v>0.2352068800659234</v>
+        <v>0.2352072486112528</v>
       </c>
       <c r="Z11" s="4">
-        <v>0.5397776026854159</v>
+        <v>0.5397775158218402</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1833,10 +1833,10 @@
         <v>0.1683275466576241</v>
       </c>
       <c r="U12">
-        <v>0.006692471584146193</v>
+        <v>0.006694459231116382</v>
       </c>
       <c r="V12">
-        <v>2.09757560222703</v>
+        <v>2.096952738741243</v>
       </c>
       <c r="W12">
         <v>0.02142986701166543</v>
@@ -1845,10 +1845,10 @@
         <v>0.2653789209222713</v>
       </c>
       <c r="Y12">
-        <v>0.0001438452294333044</v>
+        <v>0.0001438878040375252</v>
       </c>
       <c r="Z12">
-        <v>1.962953983298244</v>
+        <v>1.962352159255405</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="4" customFormat="1">
@@ -1910,10 +1910,10 @@
         <v>0.1984995973791252</v>
       </c>
       <c r="U13" s="4">
-        <v>1.321974640802712</v>
+        <v>1.321976629685961</v>
       </c>
       <c r="V13" s="4">
-        <v>0.2447241900784264</v>
+        <v>0.2447238217166258</v>
       </c>
       <c r="W13" s="4">
         <v>0.1772413555669835</v>
@@ -1922,10 +1922,10 @@
         <v>0.6663006652493315</v>
       </c>
       <c r="Y13" s="4">
-        <v>0.2346933114214962</v>
+        <v>0.2346936720085404</v>
       </c>
       <c r="Z13" s="4">
-        <v>0.6340035002946115</v>
+        <v>0.6340033988648147</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1990,10 +1990,10 @@
         <v>0.1161367220965816</v>
       </c>
       <c r="U14">
-        <v>0.008334265206837305</v>
+        <v>0.0083362536170602</v>
       </c>
       <c r="V14">
-        <v>1.184195554039658</v>
+        <v>1.183913183762592</v>
       </c>
       <c r="W14">
         <v>0.2535140267707651</v>
@@ -2002,10 +2002,10 @@
         <v>0.284330756161806</v>
       </c>
       <c r="Y14">
-        <v>0.002111150169834125</v>
+        <v>0.002111648560700679</v>
       </c>
       <c r="Z14">
-        <v>1.045470327864813</v>
+        <v>1.045225837973764</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="4" customFormat="1">
@@ -2067,10 +2067,10 @@
         <v>0.1358330741270955</v>
       </c>
       <c r="U15" s="4">
-        <v>1.325102029449361</v>
+        <v>1.325104018511275</v>
       </c>
       <c r="V15" s="4">
-        <v>0.302669993562722</v>
+        <v>0.3026695396122626</v>
       </c>
       <c r="W15" s="4">
         <v>0.1769879430735549</v>
@@ -2079,10 +2079,10 @@
         <v>0.5948252550791576</v>
       </c>
       <c r="Y15" s="4">
-        <v>0.2339808462121833</v>
+        <v>0.2339811975022381</v>
       </c>
       <c r="Z15" s="4">
-        <v>0.6475096514196562</v>
+        <v>0.6475094355142329</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -2147,10 +2147,10 @@
         <v>0.06216250227539964</v>
       </c>
       <c r="U16">
-        <v>0.00968199811891334</v>
+        <v>0.009683986746654751</v>
       </c>
       <c r="V16">
-        <v>0.9558449433794161</v>
+        <v>0.9556486683684929</v>
       </c>
       <c r="W16">
         <v>0.03378394774846583</v>
@@ -2159,10 +2159,10 @@
         <v>0.1823105071512318</v>
       </c>
       <c r="Y16">
-        <v>0.0003281594465805675</v>
+        <v>0.0003282266960048436</v>
       </c>
       <c r="Z16">
-        <v>0.9195133852561179</v>
+        <v>0.9193255083098189</v>
       </c>
     </row>
     <row r="17" spans="1:26" s="4" customFormat="1">
@@ -2224,10 +2224,10 @@
         <v>0.1358330741270955</v>
       </c>
       <c r="U17" s="4">
-        <v>1.325102029449361</v>
+        <v>1.325104018511275</v>
       </c>
       <c r="V17" s="4">
-        <v>0.302669993562722</v>
+        <v>0.3026695396122626</v>
       </c>
       <c r="W17" s="4">
         <v>0.1769879430735549</v>
@@ -2236,10 +2236,10 @@
         <v>0.5948252550791576</v>
       </c>
       <c r="Y17" s="4">
-        <v>0.2339808462121833</v>
+        <v>0.2339811975022381</v>
       </c>
       <c r="Z17" s="4">
-        <v>0.6475096514196562</v>
+        <v>0.6475094355142329</v>
       </c>
     </row>
   </sheetData>
@@ -2258,11 +2258,11 @@
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
@@ -2289,11 +2289,11 @@
     <col min="32" max="32" width="23.7109375" customWidth="1"/>
     <col min="33" max="33" width="19.7109375" customWidth="1"/>
     <col min="34" max="34" width="19.7109375" customWidth="1"/>
-    <col min="35" max="35" width="21.7109375" customWidth="1"/>
+    <col min="35" max="35" width="20.7109375" customWidth="1"/>
     <col min="36" max="36" width="19.7109375" customWidth="1"/>
     <col min="37" max="37" width="21.7109375" customWidth="1"/>
     <col min="38" max="38" width="23.7109375" customWidth="1"/>
-    <col min="39" max="39" width="21.7109375" customWidth="1"/>
+    <col min="39" max="39" width="22.7109375" customWidth="1"/>
     <col min="40" max="40" width="23.7109375" customWidth="1"/>
     <col min="41" max="41" width="16.7109375" customWidth="1"/>
     <col min="42" max="42" width="9.7109375" customWidth="1"/>
@@ -2304,7 +2304,7 @@
     <col min="47" max="47" width="9.7109375" customWidth="1"/>
     <col min="48" max="48" width="13.7109375" customWidth="1"/>
     <col min="49" max="49" width="13.7109375" customWidth="1"/>
-    <col min="50" max="50" width="21.7109375" customWidth="1"/>
+    <col min="50" max="50" width="22.7109375" customWidth="1"/>
     <col min="51" max="51" width="19.7109375" customWidth="1"/>
     <col min="52" max="52" width="12.7109375" customWidth="1"/>
     <col min="53" max="53" width="6.7109375" customWidth="1"/>
@@ -2666,19 +2666,19 @@
         <v>2.077439114060999</v>
       </c>
       <c r="D3" s="4">
-        <v>0.8589860399284676</v>
+        <v>0.01784491197779762</v>
       </c>
       <c r="E3" s="4">
         <v>2.732245830070074</v>
       </c>
       <c r="F3" s="4">
-        <v>0.01058032901085836</v>
+        <v>0.0002890805982068718</v>
       </c>
       <c r="G3" s="4">
         <v>376.7247872958919</v>
       </c>
       <c r="H3" s="4">
-        <v>0.0398587219613617</v>
+        <v>0.01924070168733985</v>
       </c>
       <c r="I3" s="4">
         <v>0</v>
@@ -2690,10 +2690,10 @@
         <v>6.442683169971912</v>
       </c>
       <c r="L3" s="4">
-        <v>10.35724744154122</v>
+        <v>10.3552883711536</v>
       </c>
       <c r="M3" s="4">
-        <v>0.08896730964368746</v>
+        <v>0.08895048150254541</v>
       </c>
       <c r="N3" s="4">
         <v>0</v>
@@ -2705,22 +2705,22 @@
         <v>0.001449630221586743</v>
       </c>
       <c r="Q3" s="4">
-        <v>10.22301062150406</v>
+        <v>10.22297677252153</v>
       </c>
       <c r="R3" s="4">
-        <v>0.001081628158570126</v>
+        <v>0.001081624577236407</v>
       </c>
       <c r="S3" s="4">
-        <v>0.9979564036432361</v>
+        <v>0.9979422587666739</v>
       </c>
       <c r="T3" s="4">
-        <v>0.001504159094322598</v>
+        <v>0.00150413777460899</v>
       </c>
       <c r="U3" s="4">
-        <v>0.9979564036432361</v>
+        <v>0.9979422587666739</v>
       </c>
       <c r="V3" s="4">
-        <v>0.001504159094322598</v>
+        <v>0.00150413777460899</v>
       </c>
       <c r="W3" s="4">
         <v>0</v>
@@ -2732,49 +2732,49 @@
         <v>0.005024637815961471</v>
       </c>
       <c r="Z3" s="4">
-        <v>0.0002350096301961836</v>
+        <v>0.0002349720374021972</v>
       </c>
       <c r="AA3" s="4">
-        <v>1.226901570285212E-06</v>
+        <v>1.226705311698128E-06</v>
       </c>
       <c r="AB3" s="4">
         <v>0</v>
       </c>
       <c r="AC3" s="4">
-        <v>223.4931164087868</v>
+        <v>223.4934529258208</v>
       </c>
       <c r="AD3" s="4">
-        <v>0.6839063107975208</v>
+        <v>0.6839063111340703</v>
       </c>
       <c r="AE3" s="4">
-        <v>10.20320170771651</v>
+        <v>10.2017474071033</v>
       </c>
       <c r="AF3" s="4">
-        <v>0.03122259043309406</v>
+        <v>0.03121809316995659</v>
       </c>
       <c r="AG3" s="4">
-        <v>43416.10043468849</v>
+        <v>43416.85725625794</v>
       </c>
       <c r="AH3" s="4">
-        <v>262.7273133400934</v>
+        <v>262.7317920274319</v>
       </c>
       <c r="AI3" s="4">
-        <v>-2.043596356763877</v>
+        <v>-2.057741233326138</v>
       </c>
       <c r="AJ3" s="4">
-        <v>1.504159094322598</v>
+        <v>1.50413777460899</v>
       </c>
       <c r="AK3" s="4">
-        <v>0.9980623209227738</v>
+        <v>0.9979233675385734</v>
       </c>
       <c r="AL3" s="4">
-        <v>0.003055973296395021</v>
+        <v>0.003055543240370879</v>
       </c>
       <c r="AM3" s="4">
-        <v>0.9980623209227738</v>
+        <v>0.9979233675385734</v>
       </c>
       <c r="AN3" s="4">
-        <v>0.003055973296395021</v>
+        <v>0.003055543240370879</v>
       </c>
       <c r="AO3" s="4" t="s">
         <v>123</v>
@@ -2786,16 +2786,16 @@
         <v>124</v>
       </c>
       <c r="AR3" s="4">
-        <v>2.298829952321891E-05</v>
+        <v>2.298469835457141E-05</v>
       </c>
       <c r="AS3" s="4">
-        <v>1.200383672573382E-07</v>
+        <v>1.20019562978047E-07</v>
       </c>
       <c r="AT3" s="4">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU3" s="4">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV3" s="4" t="s">
         <v>123</v>
@@ -2839,19 +2839,19 @@
         <v>1.487983277307228</v>
       </c>
       <c r="D4">
-        <v>0.2318905356044888</v>
+        <v>0.003450492391452957</v>
       </c>
       <c r="E4">
         <v>1.950583255563352</v>
       </c>
       <c r="F4">
-        <v>0.004025114216608421</v>
+        <v>7.851320392646388E-05</v>
       </c>
       <c r="G4">
         <v>268.9483698603306</v>
       </c>
       <c r="H4">
-        <v>0.01082547907058476</v>
+        <v>0.01011497403800324</v>
       </c>
       <c r="I4">
         <v>0.3</v>
@@ -2863,10 +2863,10 @@
         <v>0.1510878327828701</v>
       </c>
       <c r="L4">
-        <v>0.8997257520692726</v>
+        <v>0.8995555692009179</v>
       </c>
       <c r="M4">
-        <v>0.002086378865444951</v>
+        <v>0.002085984227480017</v>
       </c>
       <c r="N4">
         <v>0.005</v>
@@ -2878,16 +2878,16 @@
         <v>4.775060295905169E-05</v>
       </c>
       <c r="Q4">
-        <v>0.8851592291955996</v>
+        <v>0.8851562983819287</v>
       </c>
       <c r="R4">
-        <v>3.56286699739736E-05</v>
+        <v>3.562855200537587E-05</v>
       </c>
       <c r="S4">
-        <v>1.009859180966125</v>
+        <v>1.009844867381476</v>
       </c>
       <c r="T4">
-        <v>0.0006652301796982871</v>
+        <v>0.0006652207508307103</v>
       </c>
       <c r="U4">
         <v>1.012819823572481</v>
@@ -2905,31 +2905,31 @@
         <v>0.0001010882601516288</v>
       </c>
       <c r="Z4">
-        <v>5.088345859259041E-06</v>
+        <v>5.087531913305172E-06</v>
       </c>
       <c r="AA4">
-        <v>2.468343981399999E-08</v>
+        <v>2.467949138232497E-08</v>
       </c>
       <c r="AB4">
         <v>0.05</v>
       </c>
       <c r="AC4">
-        <v>0.07644179273624746</v>
+        <v>0.07648259612099868</v>
       </c>
       <c r="AD4">
-        <v>0.001243194675560696</v>
+        <v>0.001243199270803921</v>
       </c>
       <c r="AE4">
-        <v>0.003489821264833941</v>
+        <v>0.003491181135068417</v>
       </c>
       <c r="AF4">
-        <v>5.675595848555746E-05</v>
+        <v>5.674799315775094E-05</v>
       </c>
       <c r="AG4">
-        <v>685.8459234809413</v>
+        <v>686.2229455383076</v>
       </c>
       <c r="AH4">
-        <v>11.63972485139752</v>
+        <v>11.64045748130666</v>
       </c>
       <c r="AI4">
         <v>12.81982357248146</v>
@@ -2938,49 +2938,49 @@
         <v>0.6671804603415393</v>
       </c>
       <c r="AK4">
-        <v>0.003942591513173695</v>
+        <v>0.003944140872578457</v>
       </c>
       <c r="AL4">
-        <v>6.411968653990927E-05</v>
+        <v>6.411090024414202E-05</v>
       </c>
       <c r="AM4">
-        <v>0.003949618391180693</v>
+        <v>0.003951720684140137</v>
       </c>
       <c r="AN4">
-        <v>6.423396701092875E-05</v>
+        <v>6.42341079485825E-05</v>
       </c>
       <c r="AO4">
-        <v>0.4266</v>
+        <v>0.4263</v>
       </c>
       <c r="AP4">
         <v>0.0078</v>
       </c>
       <c r="AQ4">
-        <v>1.828410689170183</v>
+        <v>1.829697396199859</v>
       </c>
       <c r="AR4">
-        <v>5.748509072071862E-06</v>
+        <v>5.747608555240709E-06</v>
       </c>
       <c r="AS4">
-        <v>2.788683516092127E-08</v>
+        <v>2.788246662568629E-08</v>
       </c>
       <c r="AT4">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU4">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV4">
-        <v>0.4211</v>
+        <v>0.4258</v>
       </c>
       <c r="AW4">
-        <v>0.0073874084</v>
+        <v>0.0068401855</v>
       </c>
       <c r="AX4">
-        <v>0.007376176481765036</v>
+        <v>0.006952316837697424</v>
       </c>
       <c r="AY4">
-        <v>1.754312134884825</v>
+        <v>1.606431540629404</v>
       </c>
       <c r="AZ4" t="s">
         <v>26</v>
@@ -2989,19 +2989,19 @@
         <v>19</v>
       </c>
       <c r="BB4">
-        <v>12.8350675313736</v>
+        <v>12.83523755656005</v>
       </c>
       <c r="BC4">
-        <v>0.6679738533668335</v>
+        <v>0.6679826943192309</v>
       </c>
       <c r="BD4">
-        <v>363.1</v>
+        <v>367.8</v>
       </c>
       <c r="BE4">
-        <v>3.688088240882518</v>
+        <v>3.476158418848712</v>
       </c>
       <c r="BF4">
-        <v>1.751644854373079</v>
+        <v>1.632765814395825</v>
       </c>
     </row>
     <row r="5" spans="1:58" s="4" customFormat="1">
@@ -3015,19 +3015,19 @@
         <v>2.071159138591187</v>
       </c>
       <c r="D5" s="4">
-        <v>1.063623562634396</v>
+        <v>0.02202933661771146</v>
       </c>
       <c r="E5" s="4">
         <v>2.731878047656659</v>
       </c>
       <c r="F5" s="4">
-        <v>0.01038814261191085</v>
+        <v>0.0002837913875740596</v>
       </c>
       <c r="G5" s="4">
         <v>376.6740770889478</v>
       </c>
       <c r="H5" s="4">
-        <v>0.03912944031009891</v>
+        <v>0.02344562413940352</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
@@ -3039,10 +3039,10 @@
         <v>7.953417559535199</v>
       </c>
       <c r="L5" s="4">
-        <v>10.32593809561267</v>
+        <v>10.32398494737886</v>
       </c>
       <c r="M5" s="4">
-        <v>0.1098291106479778</v>
+        <v>0.1098083365031498</v>
       </c>
       <c r="N5" s="4">
         <v>0</v>
@@ -3054,22 +3054,22 @@
         <v>0.001423106824204759</v>
       </c>
       <c r="Q5" s="4">
-        <v>10.22163452149235</v>
+        <v>10.22160067706617</v>
       </c>
       <c r="R5" s="4">
-        <v>0.001061837971360937</v>
+        <v>0.001061834455553678</v>
       </c>
       <c r="S5" s="4">
-        <v>0.9961972601428589</v>
+        <v>0.9961831402001192</v>
       </c>
       <c r="T5" s="4">
-        <v>0.001530512610567441</v>
+        <v>0.001530490917323254</v>
       </c>
       <c r="U5" s="4">
-        <v>0.9961972601428589</v>
+        <v>0.9961831402001192</v>
       </c>
       <c r="V5" s="4">
-        <v>0.001530512610567441</v>
+        <v>0.001530490917323254</v>
       </c>
       <c r="W5" s="4">
         <v>0</v>
@@ -3081,49 +3081,49 @@
         <v>0.00364201928646096</v>
       </c>
       <c r="Z5" s="4">
-        <v>0.0002334198578778646</v>
+        <v>0.0002333825193882793</v>
       </c>
       <c r="AA5" s="4">
-        <v>8.892977653779294E-07</v>
+        <v>8.891555108343241E-07</v>
       </c>
       <c r="AB5" s="4">
         <v>0</v>
       </c>
       <c r="AC5" s="4">
-        <v>223.5340304545777</v>
+        <v>223.5343669070549</v>
       </c>
       <c r="AD5" s="4">
-        <v>0.6630990303162357</v>
+        <v>0.6630990316351978</v>
       </c>
       <c r="AE5" s="4">
-        <v>10.20506956954864</v>
+        <v>10.2036149969432</v>
       </c>
       <c r="AF5" s="4">
-        <v>0.03027266909703254</v>
+        <v>0.03026830870469553</v>
       </c>
       <c r="AG5" s="4">
-        <v>43719.80028746471</v>
+        <v>43720.56237839907</v>
       </c>
       <c r="AH5" s="4">
-        <v>211.1027736630517</v>
+        <v>211.1063336800885</v>
       </c>
       <c r="AI5" s="4">
-        <v>-3.80273985714108</v>
+        <v>-3.816859799880779</v>
       </c>
       <c r="AJ5" s="4">
-        <v>1.530512610567441</v>
+        <v>1.530490917323254</v>
       </c>
       <c r="AK5" s="4">
-        <v>0.9983794223997262</v>
+        <v>0.9982404243042557</v>
       </c>
       <c r="AL5" s="4">
-        <v>0.002963442436037141</v>
+        <v>0.002963025406110438</v>
       </c>
       <c r="AM5" s="4">
-        <v>0.9983794223997262</v>
+        <v>0.9982404243042557</v>
       </c>
       <c r="AN5" s="4">
-        <v>0.002963442436037141</v>
+        <v>0.002963025406110438</v>
       </c>
       <c r="AO5" s="4" t="s">
         <v>123</v>
@@ -3135,16 +3135,16 @@
         <v>124</v>
       </c>
       <c r="AR5" s="4">
-        <v>2.283586420421002E-05</v>
+        <v>2.283228691489692E-05</v>
       </c>
       <c r="AS5" s="4">
-        <v>8.703385748013611E-08</v>
+        <v>8.702022343127955E-08</v>
       </c>
       <c r="AT5" s="4">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU5" s="4">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV5" s="4" t="s">
         <v>123</v>
@@ -3188,19 +3188,19 @@
         <v>1.643744936567878</v>
       </c>
       <c r="D6">
-        <v>0.2944145928721096</v>
+        <v>0.004839424962852236</v>
       </c>
       <c r="E6">
         <v>2.159118188477732</v>
       </c>
       <c r="F6">
-        <v>0.004971657520491239</v>
+        <v>0.0001073439617937474</v>
       </c>
       <c r="G6">
         <v>297.7013749454982</v>
       </c>
       <c r="H6">
-        <v>0.01480069279608368</v>
+        <v>0.007810520298805372</v>
       </c>
       <c r="I6">
         <v>0.3</v>
@@ -3212,10 +3212,10 @@
         <v>0.1581707899202616</v>
       </c>
       <c r="L6">
-        <v>0.7418748257644545</v>
+        <v>0.7417345003536074</v>
       </c>
       <c r="M6">
-        <v>0.002184187747895092</v>
+        <v>0.00218377460940805</v>
       </c>
       <c r="N6">
         <v>0.005</v>
@@ -3227,22 +3227,22 @@
         <v>4.87301575619043E-05</v>
       </c>
       <c r="Q6">
-        <v>0.7313366903323387</v>
+        <v>0.7313342688340373</v>
       </c>
       <c r="R6">
-        <v>3.635955556501944E-05</v>
+        <v>3.635943517641703E-05</v>
       </c>
       <c r="S6">
-        <v>1.008438568163946</v>
+        <v>1.008424274714838</v>
       </c>
       <c r="T6">
-        <v>0.0008485347671310481</v>
+        <v>0.0008485227401331792</v>
       </c>
       <c r="U6">
-        <v>1.010588491840099</v>
+        <v>1.010588491840098</v>
       </c>
       <c r="V6">
-        <v>0.0008503437865829866</v>
+        <v>0.0008503437865829863</v>
       </c>
       <c r="W6">
         <v>0.003</v>
@@ -3254,82 +3254,82 @@
         <v>0.0001614857798634256</v>
       </c>
       <c r="Z6">
-        <v>1.34745350485853E-05</v>
+        <v>1.347237962448748E-05</v>
       </c>
       <c r="AA6">
-        <v>3.943113198403873E-08</v>
+        <v>3.94248244705122E-08</v>
       </c>
       <c r="AB6">
         <v>0.05</v>
       </c>
       <c r="AC6">
-        <v>0.1220755434641298</v>
+        <v>0.122105997848326</v>
       </c>
       <c r="AD6">
-        <v>0.001178684379515027</v>
+        <v>0.001178685370236696</v>
       </c>
       <c r="AE6">
-        <v>0.005573153274508009</v>
+        <v>0.005573740665031366</v>
       </c>
       <c r="AF6">
-        <v>5.381084960097531E-05</v>
+        <v>5.380314394978663E-05</v>
       </c>
       <c r="AG6">
-        <v>413.606351121788</v>
+        <v>413.7161229409318</v>
       </c>
       <c r="AH6">
-        <v>4.172909645876111</v>
+        <v>4.173066908243699</v>
       </c>
       <c r="AI6">
-        <v>10.58849184009869</v>
+        <v>10.58849184009847</v>
       </c>
       <c r="AJ6">
-        <v>0.8503437865829866</v>
+        <v>0.8503437865829863</v>
       </c>
       <c r="AK6">
-        <v>0.007620502770037998</v>
+        <v>0.007621331178583431</v>
       </c>
       <c r="AL6">
-        <v>7.357973920995152E-05</v>
+        <v>7.356944675445643E-05</v>
       </c>
       <c r="AM6">
-        <v>0.00763594924184902</v>
+        <v>0.007637842693900923</v>
       </c>
       <c r="AN6">
-        <v>7.372888256726878E-05</v>
+        <v>7.372883400827361E-05</v>
       </c>
       <c r="AO6">
-        <v>0.8270999999999999</v>
+        <v>0.8273</v>
       </c>
       <c r="AP6">
-        <v>0.008500000000000001</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="AQ6">
-        <v>1.027687099504292</v>
+        <v>1.051613683065393</v>
       </c>
       <c r="AR6">
-        <v>1.842453035203541E-05</v>
+        <v>1.842164410805804E-05</v>
       </c>
       <c r="AS6">
-        <v>5.392430426363974E-08</v>
+        <v>5.391585690050805E-08</v>
       </c>
       <c r="AT6">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU6">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV6">
-        <v>0.8112</v>
+        <v>0.8258</v>
       </c>
       <c r="AW6">
-        <v>0.0112817119</v>
+        <v>0.0081047898</v>
       </c>
       <c r="AX6">
-        <v>0.01131278628413514</v>
+        <v>0.008080746629234392</v>
       </c>
       <c r="AY6">
-        <v>1.390743577416173</v>
+        <v>0.9814470573988858</v>
       </c>
       <c r="AZ6" t="s">
         <v>27</v>
@@ -3338,19 +3338,19 @@
         <v>52</v>
       </c>
       <c r="BB6">
-        <v>10.6127597097908</v>
+        <v>10.61319664215399</v>
       </c>
       <c r="BC6">
-        <v>0.8522927649374851</v>
+        <v>0.8523278218228314</v>
       </c>
       <c r="BD6">
-        <v>753.2</v>
+        <v>767.8</v>
       </c>
       <c r="BE6">
-        <v>5.656393142067571</v>
+        <v>4.040373314617196</v>
       </c>
       <c r="BF6">
-        <v>1.394574246071886</v>
+        <v>0.9785355569428907</v>
       </c>
     </row>
     <row r="7" spans="1:58" s="4" customFormat="1">
@@ -3364,19 +3364,19 @@
         <v>2.113150102365951</v>
       </c>
       <c r="D7" s="4">
-        <v>0.9886021806888251</v>
+        <v>0.02089064799321793</v>
       </c>
       <c r="E7" s="4">
         <v>2.731840629371685</v>
       </c>
       <c r="F7" s="4">
-        <v>0.0117831529291645</v>
+        <v>0.0003218969591399157</v>
       </c>
       <c r="G7" s="4">
         <v>376.6689178183972</v>
       </c>
       <c r="H7" s="4">
-        <v>0.04438347462317071</v>
+        <v>0.02291532792878015</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>7.542308216659734</v>
       </c>
       <c r="L7" s="4">
-        <v>10.5352875774725</v>
+        <v>10.53329483084415</v>
       </c>
       <c r="M7" s="4">
-        <v>0.104152082732732</v>
+        <v>0.1041323823961086</v>
       </c>
       <c r="N7" s="4">
         <v>0</v>
@@ -3403,22 +3403,22 @@
         <v>0.001614191900461489</v>
       </c>
       <c r="Q7" s="4">
-        <v>10.22149451669464</v>
+        <v>10.22146067273202</v>
       </c>
       <c r="R7" s="4">
-        <v>0.001204414330548294</v>
+        <v>0.001204410342662421</v>
       </c>
       <c r="S7" s="4">
-        <v>0.9995479443721107</v>
+        <v>0.9995337769373015</v>
       </c>
       <c r="T7" s="4">
-        <v>0.001490510845541379</v>
+        <v>0.001490489719275895</v>
       </c>
       <c r="U7" s="4">
-        <v>0.9995479443721107</v>
+        <v>0.9995337769373015</v>
       </c>
       <c r="V7" s="4">
-        <v>0.001490510845541379</v>
+        <v>0.001490489719275895</v>
       </c>
       <c r="W7" s="4">
         <v>0</v>
@@ -3430,52 +3430,52 @@
         <v>0.004826552531443986</v>
       </c>
       <c r="Z7" s="4">
-        <v>0.0002340915117217181</v>
+        <v>0.0002340540657925161</v>
       </c>
       <c r="AA7" s="4">
-        <v>1.178533676811801E-06</v>
+        <v>1.178345155287464E-06</v>
       </c>
       <c r="AB7" s="4">
         <v>0</v>
       </c>
       <c r="AC7" s="4">
-        <v>223.3508307435983</v>
+        <v>223.3511671840182</v>
       </c>
       <c r="AD7" s="4">
-        <v>0.6375465087264964</v>
+        <v>0.6375465078476279</v>
       </c>
       <c r="AE7" s="4">
-        <v>10.19670589538295</v>
+        <v>10.19525252692448</v>
       </c>
       <c r="AF7" s="4">
-        <v>0.02910611177253752</v>
+        <v>0.02910191930991847</v>
       </c>
       <c r="AG7" s="4">
-        <v>43558.63149580805</v>
+        <v>43559.39082879404</v>
       </c>
       <c r="AH7" s="4">
-        <v>252.09176730753</v>
+        <v>252.0960694188041</v>
       </c>
       <c r="AI7" s="4">
-        <v>-0.4520556278893029</v>
+        <v>-0.4662230626985009</v>
       </c>
       <c r="AJ7" s="4">
-        <v>1.490510845541379</v>
+        <v>1.490489719275895</v>
       </c>
       <c r="AK7" s="4">
-        <v>0.9975748535332862</v>
+        <v>0.9974359686304465</v>
       </c>
       <c r="AL7" s="4">
-        <v>0.002849964831768674</v>
+        <v>0.002849563763424285</v>
       </c>
       <c r="AM7" s="4">
-        <v>0.9975748535332862</v>
+        <v>0.9974359686304465</v>
       </c>
       <c r="AN7" s="4">
-        <v>0.002849964831768674</v>
+        <v>0.002849563763424285</v>
       </c>
       <c r="AO7" s="4">
-        <v>690.3634</v>
+        <v>683.3040999999999</v>
       </c>
       <c r="AP7" s="4" t="s">
         <v>124</v>
@@ -3484,25 +3484,25 @@
         <v>124</v>
       </c>
       <c r="AR7" s="4">
-        <v>2.290188693437924E-05</v>
+        <v>2.289829930245747E-05</v>
       </c>
       <c r="AS7" s="4">
-        <v>1.153311213345726E-07</v>
+        <v>1.153130544559063E-07</v>
       </c>
       <c r="AT7" s="4">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU7" s="4">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV7" s="4">
-        <v>690.3434</v>
+        <v>683.3022</v>
       </c>
       <c r="AW7" s="4" t="s">
         <v>124</v>
       </c>
       <c r="AX7" s="4">
-        <v>218.4846322240076</v>
+        <v>204.7333541029582</v>
       </c>
       <c r="AY7" s="4" t="s">
         <v>124</v>
@@ -3511,19 +3511,19 @@
         <v>25</v>
       </c>
       <c r="BB7" s="4">
-        <v>-3.171701113973618</v>
+        <v>-3.206656233653157</v>
       </c>
       <c r="BC7" s="4" t="s">
         <v>124</v>
       </c>
       <c r="BD7" s="4">
-        <v>690285.4</v>
+        <v>683244.2</v>
       </c>
       <c r="BE7" s="4">
-        <v>109242.3161120038</v>
+        <v>102366.6770514791</v>
       </c>
       <c r="BF7" s="4">
-        <v>31.64868849676952</v>
+        <v>29.96234376282679</v>
       </c>
     </row>
     <row r="8" spans="1:58">
@@ -3537,19 +3537,19 @@
         <v>1.679009071936906</v>
       </c>
       <c r="D8">
-        <v>0.2645944796686643</v>
+        <v>0.004442565317481126</v>
       </c>
       <c r="E8">
         <v>2.209360053469982</v>
       </c>
       <c r="F8">
-        <v>0.0056653596426625</v>
+        <v>0.000125168192830395</v>
       </c>
       <c r="G8">
         <v>304.6287735324947</v>
       </c>
       <c r="H8">
-        <v>0.0172583155956477</v>
+        <v>0.009496732800354634</v>
       </c>
       <c r="I8">
         <v>0.3</v>
@@ -3561,10 +3561,10 @@
         <v>0.1520648774274185</v>
       </c>
       <c r="L8">
-        <v>0.7936185678270096</v>
+        <v>0.7934684551021689</v>
       </c>
       <c r="M8">
-        <v>0.002099870920095782</v>
+        <v>0.002099473730112573</v>
       </c>
       <c r="N8">
         <v>0.005</v>
@@ -3576,16 +3576,16 @@
         <v>5.95081833313798E-05</v>
       </c>
       <c r="Q8">
-        <v>0.7837362926944826</v>
+        <v>0.783733697698051</v>
       </c>
       <c r="R8">
-        <v>4.440147963121247E-05</v>
+        <v>4.440133261533191E-05</v>
       </c>
       <c r="S8">
-        <v>1.00949617761518</v>
+        <v>1.009481869175683</v>
       </c>
       <c r="T8">
-        <v>0.0006594036218248174</v>
+        <v>0.0006593942755419525</v>
       </c>
       <c r="U8">
         <v>1.010345463559754</v>
@@ -3603,31 +3603,31 @@
         <v>0.0001584309866576819</v>
       </c>
       <c r="Z8">
-        <v>1.472710653585119E-05</v>
+        <v>1.472475074693498E-05</v>
       </c>
       <c r="AA8">
-        <v>3.868522138942478E-08</v>
+        <v>3.867903319383127E-08</v>
       </c>
       <c r="AB8">
         <v>0.05</v>
       </c>
       <c r="AC8">
-        <v>0.1403037296587394</v>
+        <v>0.1403356259703252</v>
       </c>
       <c r="AD8">
-        <v>0.001410707643862812</v>
+        <v>0.001410708635659054</v>
       </c>
       <c r="AE8">
-        <v>0.006405330405946957</v>
+        <v>0.006405863749584489</v>
       </c>
       <c r="AF8">
-        <v>6.440348084198926E-05</v>
+        <v>6.439424948519497E-05</v>
       </c>
       <c r="AG8">
-        <v>434.9347504449723</v>
+        <v>435.0405558422032</v>
       </c>
       <c r="AH8">
-        <v>4.519900843722522</v>
+        <v>4.52004146242034</v>
       </c>
       <c r="AI8">
         <v>10.34546355975419</v>
@@ -3636,49 +3636,49 @@
         <v>0.6599583760083745</v>
       </c>
       <c r="AK8">
-        <v>0.008172813311892771</v>
+        <v>0.008173520889046262</v>
       </c>
       <c r="AL8">
-        <v>8.217624190956665E-05</v>
+        <v>8.216473571437868E-05</v>
       </c>
       <c r="AM8">
-        <v>0.008188528603021345</v>
+        <v>0.008190377831971419</v>
       </c>
       <c r="AN8">
-        <v>8.233425647764465E-05</v>
+        <v>8.233419099310125E-05</v>
       </c>
       <c r="AO8">
-        <v>0.8864</v>
+        <v>0.8875999999999999</v>
       </c>
       <c r="AP8">
-        <v>0.0097</v>
+        <v>0.0094</v>
       </c>
       <c r="AQ8">
-        <v>1.094314079422383</v>
+        <v>1.059035601622353</v>
       </c>
       <c r="AR8">
-        <v>1.879089519412129E-05</v>
+        <v>1.878795155827022E-05</v>
       </c>
       <c r="AS8">
-        <v>4.937147616707931E-08</v>
+        <v>4.936374201467389E-08</v>
       </c>
       <c r="AT8">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU8">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV8">
-        <v>0.8711</v>
+        <v>0.886</v>
       </c>
       <c r="AW8">
-        <v>0.0122996176</v>
+        <v>0.00898766</v>
       </c>
       <c r="AX8">
-        <v>0.01209999160327336</v>
+        <v>0.00900963431468612</v>
       </c>
       <c r="AY8">
-        <v>1.411963907702904</v>
+        <v>1.014408577878104</v>
       </c>
       <c r="AZ8" t="s">
         <v>28</v>
@@ -3687,19 +3687,19 @@
         <v>69</v>
       </c>
       <c r="BB8">
-        <v>10.370927423222</v>
+        <v>10.37136315496444</v>
       </c>
       <c r="BC8">
-        <v>0.6615828661139012</v>
+        <v>0.661610616695081</v>
       </c>
       <c r="BD8">
-        <v>813.1</v>
+        <v>828</v>
       </c>
       <c r="BE8">
-        <v>6.049995801636681</v>
+        <v>4.50481715734306</v>
       </c>
       <c r="BF8">
-        <v>1.389047365775842</v>
+        <v>1.016888748835905</v>
       </c>
     </row>
     <row r="9" spans="1:58" s="4" customFormat="1">
@@ -3713,19 +3713,19 @@
         <v>2.096233332407959</v>
       </c>
       <c r="D9" s="4">
-        <v>1.018172322170478</v>
+        <v>0.0213432675986897</v>
       </c>
       <c r="E9" s="4">
         <v>2.731711989396673</v>
       </c>
       <c r="F9" s="4">
-        <v>0.01293814926168108</v>
+        <v>0.0003534329745873792</v>
       </c>
       <c r="G9" s="4">
         <v>376.6511808100026</v>
       </c>
       <c r="H9" s="4">
-        <v>0.04873169196908243</v>
+        <v>0.02021665480026139</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         <v>7.70572088679229</v>
       </c>
       <c r="L9" s="4">
-        <v>10.45094759793681</v>
+        <v>10.44897080419143</v>
       </c>
       <c r="M9" s="4">
-        <v>0.1064086558467329</v>
+        <v>0.1063885286799512</v>
       </c>
       <c r="N9" s="4">
         <v>0</v>
@@ -3752,22 +3752,22 @@
         <v>0.001772333129394309</v>
       </c>
       <c r="Q9" s="4">
-        <v>10.22101319549857</v>
+        <v>10.22097935312963</v>
       </c>
       <c r="R9" s="4">
-        <v>0.001322409943289724</v>
+        <v>0.001322405564713517</v>
       </c>
       <c r="S9" s="4">
-        <v>0.998770876318029</v>
+        <v>0.9987567198972598</v>
       </c>
       <c r="T9" s="4">
-        <v>0.001999757396669946</v>
+        <v>0.001999729052424219</v>
       </c>
       <c r="U9" s="4">
-        <v>0.998770876318029</v>
+        <v>0.9987567198972598</v>
       </c>
       <c r="V9" s="4">
-        <v>0.001999757396669946</v>
+        <v>0.001999729052424219</v>
       </c>
       <c r="W9" s="4">
         <v>0</v>
@@ -3779,49 +3779,49 @@
         <v>0.006879442002812573</v>
       </c>
       <c r="Z9" s="4">
-        <v>0.0002334500752389513</v>
+        <v>0.0002334127319157129</v>
       </c>
       <c r="AA9" s="4">
-        <v>1.679802307168223E-06</v>
+        <v>1.679533601319793E-06</v>
       </c>
       <c r="AB9" s="4">
         <v>0</v>
       </c>
       <c r="AC9" s="4">
-        <v>223.5668665119021</v>
+        <v>223.5672029488462</v>
       </c>
       <c r="AD9" s="4">
-        <v>0.7358554512035772</v>
+        <v>0.7358554508892236</v>
       </c>
       <c r="AE9" s="4">
-        <v>10.20656864442643</v>
+        <v>10.20511385518633</v>
       </c>
       <c r="AF9" s="4">
-        <v>0.03359424091890131</v>
+        <v>0.03358940201529571</v>
       </c>
       <c r="AG9" s="4">
-        <v>43720.5626683964</v>
+        <v>43721.32475991702</v>
       </c>
       <c r="AH9" s="4">
-        <v>345.9440783152731</v>
+        <v>345.9500183460893</v>
       </c>
       <c r="AI9" s="4">
-        <v>-1.229123681971034</v>
+        <v>-1.243280102740218</v>
       </c>
       <c r="AJ9" s="4">
-        <v>1.999757396669946</v>
+        <v>1.999729052424219</v>
       </c>
       <c r="AK9" s="4">
-        <v>0.9985867789429622</v>
+        <v>0.9984477516884488</v>
       </c>
       <c r="AL9" s="4">
-        <v>0.003289320201334843</v>
+        <v>0.003288857305951554</v>
       </c>
       <c r="AM9" s="4">
-        <v>0.9985867789429622</v>
+        <v>0.9984477516884488</v>
       </c>
       <c r="AN9" s="4">
-        <v>0.003289320201334842</v>
+        <v>0.003288857305951554</v>
       </c>
       <c r="AO9" s="4" t="s">
         <v>123</v>
@@ -3833,16 +3833,16 @@
         <v>124</v>
       </c>
       <c r="AR9" s="4">
-        <v>2.284020877125616E-05</v>
+        <v>2.283663080135689E-05</v>
       </c>
       <c r="AS9" s="4">
-        <v>1.643744900403789E-07</v>
+        <v>1.643487404080764E-07</v>
       </c>
       <c r="AT9" s="4">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU9" s="4">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV9" s="4" t="s">
         <v>123</v>
@@ -3886,19 +3886,19 @@
         <v>1.760462260515619</v>
       </c>
       <c r="D10">
-        <v>0.2375342815352314</v>
+        <v>0.004181701382214668</v>
       </c>
       <c r="E10">
         <v>2.311885433697452</v>
       </c>
       <c r="F10">
-        <v>0.005007610776655325</v>
+        <v>0.0001157702241217583</v>
       </c>
       <c r="G10">
         <v>318.7650754836384</v>
       </c>
       <c r="H10">
-        <v>0.01596251427213216</v>
+        <v>0.0109695211746043</v>
       </c>
       <c r="I10">
         <v>0.3</v>
@@ -3910,10 +3910,10 @@
         <v>0.1473981877979229</v>
       </c>
       <c r="L10">
-        <v>0.8568987912712867</v>
+        <v>0.8567367091103028</v>
       </c>
       <c r="M10">
-        <v>0.002035428387330333</v>
+        <v>0.002035043386633743</v>
       </c>
       <c r="N10">
         <v>0.005</v>
@@ -3925,22 +3925,22 @@
         <v>5.667916986329242E-05</v>
       </c>
       <c r="Q10">
-        <v>0.8445272472218722</v>
+        <v>0.8445244509430558</v>
       </c>
       <c r="R10">
-        <v>4.229063744367303E-05</v>
+        <v>4.229049741691368E-05</v>
       </c>
       <c r="S10">
-        <v>1.010954302657248</v>
+        <v>1.010939973550517</v>
       </c>
       <c r="T10">
-        <v>0.0006244291800394009</v>
+        <v>0.0006244203294787541</v>
       </c>
       <c r="U10">
         <v>1.012274564447631</v>
       </c>
       <c r="V10">
-        <v>0.0006252446570446814</v>
+        <v>0.0006252446570446812</v>
       </c>
       <c r="W10">
         <v>0.003</v>
@@ -3952,82 +3952,82 @@
         <v>0.0001041681144664694</v>
       </c>
       <c r="Z10">
-        <v>7.568787923890998E-06</v>
+        <v>7.567577199526586E-06</v>
       </c>
       <c r="AA10">
-        <v>2.543546975795418E-08</v>
+        <v>2.543140102947798E-08</v>
       </c>
       <c r="AB10">
         <v>0.05</v>
       </c>
       <c r="AC10">
-        <v>0.1837286337793439</v>
+        <v>0.1837614782573377</v>
       </c>
       <c r="AD10">
-        <v>0.001459666303064</v>
+        <v>0.001459666856187389</v>
       </c>
       <c r="AE10">
-        <v>0.008387821245040014</v>
+        <v>0.008388112312889485</v>
       </c>
       <c r="AF10">
-        <v>6.663860594649308E-05</v>
+        <v>6.66290326199703E-05</v>
       </c>
       <c r="AG10">
-        <v>1108.211952743943</v>
+        <v>1108.427716259602</v>
       </c>
       <c r="AH10">
-        <v>9.559668530582464</v>
+        <v>9.560083242395304</v>
       </c>
       <c r="AI10">
-        <v>12.2745644476312</v>
+        <v>12.27456444763098</v>
       </c>
       <c r="AJ10">
-        <v>0.6252446570446815</v>
+        <v>0.6252446570446812</v>
       </c>
       <c r="AK10">
-        <v>0.009931972322541756</v>
+        <v>0.009932349860945678</v>
       </c>
       <c r="AL10">
-        <v>7.890796880174303E-05</v>
+        <v>7.889689464544633E-05</v>
       </c>
       <c r="AM10">
-        <v>0.009943772282544169</v>
+        <v>0.009945534929701775</v>
       </c>
       <c r="AN10">
-        <v>7.900171764089544E-05</v>
+        <v>7.900162927472403E-05</v>
       </c>
       <c r="AO10">
         <v>1.0766</v>
       </c>
       <c r="AP10">
-        <v>0.0095</v>
+        <v>0.0092</v>
       </c>
       <c r="AQ10">
-        <v>0.8824075794166821</v>
+        <v>0.8545420769087869</v>
       </c>
       <c r="AR10">
-        <v>8.962159538119133E-06</v>
+        <v>8.960755595739227E-06</v>
       </c>
       <c r="AS10">
-        <v>3.012134131923454E-08</v>
+        <v>3.011662274360131E-08</v>
       </c>
       <c r="AT10">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU10">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV10">
-        <v>1.0687</v>
+        <v>1.0759</v>
       </c>
       <c r="AW10">
-        <v>0.0092721852</v>
+        <v>0.0084484013</v>
       </c>
       <c r="AX10">
-        <v>0.009445596855597189</v>
+        <v>0.008628000993490665</v>
       </c>
       <c r="AY10">
-        <v>0.8676134743145878</v>
+        <v>0.7852403847941258</v>
       </c>
       <c r="AZ10" t="s">
         <v>29</v>
@@ -4036,19 +4036,19 @@
         <v>105.5</v>
       </c>
       <c r="BB10">
-        <v>12.31164014892994</v>
+        <v>12.31188978331035</v>
       </c>
       <c r="BC10">
-        <v>0.6271333106032276</v>
+        <v>0.6271460124875351</v>
       </c>
       <c r="BD10">
-        <v>1010.7</v>
+        <v>1017.9</v>
       </c>
       <c r="BE10">
-        <v>4.722798427798595</v>
+        <v>4.314000496745333</v>
       </c>
       <c r="BF10">
-        <v>0.8838398854306343</v>
+        <v>0.8019333575137712</v>
       </c>
     </row>
     <row r="11" spans="1:58" s="4" customFormat="1">
@@ -4062,19 +4062,19 @@
         <v>2.040314848989135</v>
       </c>
       <c r="D11" s="4">
-        <v>1.05463350512679</v>
+        <v>0.02151784400751649</v>
       </c>
       <c r="E11" s="4">
         <v>2.731606041088039</v>
       </c>
       <c r="F11" s="4">
-        <v>0.01606696128332144</v>
+        <v>0.0004388860850344846</v>
       </c>
       <c r="G11" s="4">
         <v>376.6365725512599</v>
       </c>
       <c r="H11" s="4">
-        <v>0.06051405229063978</v>
+        <v>0.02894075737524501</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -4086,10 +4086,10 @@
         <v>7.768749524446646</v>
       </c>
       <c r="L11" s="4">
-        <v>10.17216129541441</v>
+        <v>10.17023723401832</v>
       </c>
       <c r="M11" s="4">
-        <v>0.1072790212169797</v>
+        <v>0.1072587294208373</v>
       </c>
       <c r="N11" s="4">
         <v>0</v>
@@ -4101,22 +4101,22 @@
         <v>0.002200848263931516</v>
       </c>
       <c r="Q11" s="4">
-        <v>10.2206167777705</v>
+        <v>10.22058293671412</v>
       </c>
       <c r="R11" s="4">
-        <v>0.001642142540601041</v>
+        <v>0.001642137103371615</v>
       </c>
       <c r="S11" s="4">
-        <v>0.9986206183677957</v>
+        <v>0.998606464076759</v>
       </c>
       <c r="T11" s="4">
-        <v>0.001708908218159415</v>
+        <v>0.001708883996364041</v>
       </c>
       <c r="U11" s="4">
-        <v>0.9986206183677957</v>
+        <v>0.998606464076759</v>
       </c>
       <c r="V11" s="4">
-        <v>0.001708908218159415</v>
+        <v>0.001708883996364041</v>
       </c>
       <c r="W11" s="4">
         <v>0</v>
@@ -4128,49 +4128,49 @@
         <v>0.005745749129963857</v>
       </c>
       <c r="Z11" s="4">
-        <v>0.0002331944676541208</v>
+        <v>0.0002331571652185824</v>
       </c>
       <c r="AA11" s="4">
-        <v>1.402980451172801E-06</v>
+        <v>1.402756026518272E-06</v>
       </c>
       <c r="AB11" s="4">
         <v>0</v>
       </c>
       <c r="AC11" s="4">
-        <v>223.6596343415679</v>
+        <v>223.6599707847331</v>
       </c>
       <c r="AD11" s="4">
-        <v>0.6418123587449089</v>
+        <v>0.6418123585510945</v>
       </c>
       <c r="AE11" s="4">
-        <v>10.21080380340258</v>
+        <v>10.20934840441734</v>
       </c>
       <c r="AF11" s="4">
-        <v>0.02930086196839195</v>
+        <v>0.0292966414853713</v>
       </c>
       <c r="AG11" s="4">
-        <v>43786.64685367866</v>
+        <v>43787.41007099728</v>
       </c>
       <c r="AH11" s="4">
-        <v>291.8671022022075</v>
+        <v>291.8721081654925</v>
       </c>
       <c r="AI11" s="4">
-        <v>-1.379381632204302</v>
+        <v>-1.393535923240985</v>
       </c>
       <c r="AJ11" s="4">
-        <v>1.708908218159415</v>
+        <v>1.708883996364041</v>
       </c>
       <c r="AK11" s="4">
-        <v>0.9990398843258403</v>
+        <v>0.9989007933924758</v>
       </c>
       <c r="AL11" s="4">
-        <v>0.002871329060420849</v>
+        <v>0.002870924994768869</v>
       </c>
       <c r="AM11" s="4">
-        <v>0.9990398843258403</v>
+        <v>0.9989007933924758</v>
       </c>
       <c r="AN11" s="4">
-        <v>0.002871329060420849</v>
+        <v>0.002870924994768869</v>
       </c>
       <c r="AO11" s="4" t="s">
         <v>123</v>
@@ -4182,16 +4182,16 @@
         <v>124</v>
       </c>
       <c r="AR11" s="4">
-        <v>2.281608563597758E-05</v>
+        <v>2.281251144502151E-05</v>
       </c>
       <c r="AS11" s="4">
-        <v>1.373185868471903E-07</v>
+        <v>1.372970755827675E-07</v>
       </c>
       <c r="AT11" s="4">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU11" s="4">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV11" s="4" t="s">
         <v>123</v>
@@ -4235,19 +4235,19 @@
         <v>0.6759725841655233</v>
       </c>
       <c r="D12">
-        <v>0.3519500666539866</v>
+        <v>0.002379085960533235</v>
       </c>
       <c r="E12">
         <v>0.8868431574315141</v>
       </c>
       <c r="F12">
-        <v>0.006520309130870749</v>
+        <v>5.782491537050947E-05</v>
       </c>
       <c r="G12">
         <v>122.2788213898146</v>
       </c>
       <c r="H12">
-        <v>0.007972957156201216</v>
+        <v>0.006839964321059627</v>
       </c>
       <c r="I12">
         <v>0.3</v>
@@ -4259,10 +4259,10 @@
         <v>0.101749707494466</v>
       </c>
       <c r="L12">
-        <v>0.3992232268988505</v>
+        <v>0.3991477139398059</v>
       </c>
       <c r="M12">
-        <v>0.0014050664131687</v>
+        <v>0.00140480064525901</v>
       </c>
       <c r="N12">
         <v>0.005</v>
@@ -4274,16 +4274,16 @@
         <v>3.435009050826131E-05</v>
       </c>
       <c r="Q12">
-        <v>0.3930795496690651</v>
+        <v>0.3930782481598226</v>
       </c>
       <c r="R12">
-        <v>2.563000176865767E-05</v>
+        <v>2.562991690623169E-05</v>
       </c>
       <c r="S12">
-        <v>1.013514199504666</v>
+        <v>1.013499834114361</v>
       </c>
       <c r="T12">
-        <v>0.001706023587052863</v>
+        <v>0.001705999406143795</v>
       </c>
       <c r="U12">
         <v>1.015973863172034</v>
@@ -4301,31 +4301,31 @@
         <v>0.002422761819904845</v>
       </c>
       <c r="Z12">
-        <v>0.0002229201142324884</v>
+        <v>0.0002228844553110954</v>
       </c>
       <c r="AA12">
-        <v>5.915829936688723E-07</v>
+        <v>5.91488362408067E-07</v>
       </c>
       <c r="AB12">
         <v>0.05</v>
       </c>
       <c r="AC12">
-        <v>0.1336379998961868</v>
+        <v>0.1336778413232077</v>
       </c>
       <c r="AD12">
-        <v>0.002803158081126597</v>
+        <v>0.002803161154717176</v>
       </c>
       <c r="AE12">
-        <v>0.006101017743484217</v>
+        <v>0.006101957588703227</v>
       </c>
       <c r="AF12">
-        <v>0.000127973459674867</v>
+        <v>0.0001279551667731414</v>
       </c>
       <c r="AG12">
-        <v>27.3686282841275</v>
+        <v>27.37722368384236</v>
       </c>
       <c r="AH12">
-        <v>0.5786539297686056</v>
+        <v>0.5786664882355141</v>
       </c>
       <c r="AI12">
         <v>15.97386317203431</v>
@@ -4334,49 +4334,49 @@
         <v>1.710163878560172</v>
       </c>
       <c r="AK12">
-        <v>0.01552107645544186</v>
+        <v>0.01552351883440321</v>
       </c>
       <c r="AL12">
-        <v>0.0003255678858628865</v>
+        <v>0.0003255224269923627</v>
       </c>
       <c r="AM12">
-        <v>0.01553581882120513</v>
+        <v>0.01554042712816793</v>
       </c>
       <c r="AN12">
-        <v>0.0003258771196243427</v>
+        <v>0.0003258769876355586</v>
       </c>
       <c r="AO12">
-        <v>1.6828</v>
+        <v>1.6808</v>
       </c>
       <c r="AP12">
-        <v>0.0353</v>
+        <v>0.0356</v>
       </c>
       <c r="AQ12">
-        <v>2.097694318992156</v>
+        <v>2.118039029033794</v>
       </c>
       <c r="AR12">
-        <v>0.0005671119609762593</v>
+        <v>0.0005670231216164175</v>
       </c>
       <c r="AS12">
-        <v>1.505449798383245E-06</v>
+        <v>1.505213966297934E-06</v>
       </c>
       <c r="AT12">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU12">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV12">
-        <v>1.1923</v>
+        <v>1.6351</v>
       </c>
       <c r="AW12">
-        <v>0.2492845134</v>
+        <v>0.041956368</v>
       </c>
       <c r="AX12">
-        <v>0.2471275949196861</v>
+        <v>0.04231339367728365</v>
       </c>
       <c r="AY12">
-        <v>20.9078682714082</v>
+        <v>2.565981774814996</v>
       </c>
       <c r="AZ12" t="s">
         <v>30</v>
@@ -4385,19 +4385,19 @@
         <v>117</v>
       </c>
       <c r="BB12">
-        <v>16.02770239241553</v>
+        <v>16.04774249389801</v>
       </c>
       <c r="BC12">
-        <v>1.715964958776091</v>
+        <v>1.718074459126465</v>
       </c>
       <c r="BD12">
-        <v>1134.3</v>
+        <v>1577.1</v>
       </c>
       <c r="BE12">
-        <v>123.5637974598431</v>
+        <v>21.15669683864182</v>
       </c>
       <c r="BF12">
-        <v>20.72696426400119</v>
+        <v>2.587816872196419</v>
       </c>
     </row>
     <row r="13" spans="1:58" s="4" customFormat="1">
@@ -4411,19 +4411,19 @@
         <v>2.10006716014183</v>
       </c>
       <c r="D13" s="4">
-        <v>1.257053177180705</v>
+        <v>0.02639896095949147</v>
       </c>
       <c r="E13" s="4">
         <v>2.731636492675933</v>
       </c>
       <c r="F13" s="4">
-        <v>0.009697510701937679</v>
+        <v>0.0002649007412152836</v>
       </c>
       <c r="G13" s="4">
         <v>376.6407712466503</v>
       </c>
       <c r="H13" s="4">
-        <v>0.03652477909950453</v>
+        <v>0.02511397566782324</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
@@ -4435,10 +4435,10 @@
         <v>9.531015994367053</v>
       </c>
       <c r="L13" s="4">
-        <v>10.47006146857647</v>
+        <v>10.46808105944794</v>
       </c>
       <c r="M13" s="4">
-        <v>0.1316142403435133</v>
+        <v>0.1315893455476419</v>
       </c>
       <c r="N13" s="4">
         <v>0</v>
@@ -4450,22 +4450,22 @@
         <v>0.001328377354164738</v>
       </c>
       <c r="Q13" s="4">
-        <v>10.22073071587338</v>
+        <v>10.22069687443975</v>
       </c>
       <c r="R13" s="4">
-        <v>0.0009911564549880526</v>
+        <v>0.0009911531732114042</v>
       </c>
       <c r="S13" s="4">
-        <v>0.9965373994581971</v>
+        <v>0.9965232746943763</v>
       </c>
       <c r="T13" s="4">
-        <v>0.001978122725656926</v>
+        <v>0.001978094688057611</v>
       </c>
       <c r="U13" s="4">
-        <v>0.9965373994581971</v>
+        <v>0.9965232746943763</v>
       </c>
       <c r="V13" s="4">
-        <v>0.001978122725656926</v>
+        <v>0.001978094688057611</v>
       </c>
       <c r="W13" s="4">
         <v>0</v>
@@ -4477,49 +4477,49 @@
         <v>0.00641583313092309</v>
       </c>
       <c r="Z13" s="4">
-        <v>0.0002351190253342692</v>
+        <v>0.0002350814150411323</v>
       </c>
       <c r="AA13" s="4">
-        <v>1.56659962992998E-06</v>
+        <v>1.566349032296606E-06</v>
       </c>
       <c r="AB13" s="4">
         <v>0</v>
       </c>
       <c r="AC13" s="4">
-        <v>223.667137220019</v>
+        <v>223.6674737225575</v>
       </c>
       <c r="AD13" s="4">
-        <v>0.5473675900332942</v>
+        <v>0.5473675896308725</v>
       </c>
       <c r="AE13" s="4">
-        <v>10.21114633467806</v>
+        <v>10.20969088906507</v>
       </c>
       <c r="AF13" s="4">
-        <v>0.02498914516526381</v>
+        <v>0.02498554572917418</v>
       </c>
       <c r="AG13" s="4">
-        <v>43429.68979290745</v>
+        <v>43430.44679767083</v>
       </c>
       <c r="AH13" s="4">
-        <v>308.2732583587168</v>
+        <v>308.2785765845257</v>
       </c>
       <c r="AI13" s="4">
-        <v>-3.462600541802918</v>
+        <v>-3.476725305623707</v>
       </c>
       <c r="AJ13" s="4">
-        <v>1.978122725656926</v>
+        <v>1.97809468805761</v>
       </c>
       <c r="AK13" s="4">
-        <v>0.9990622606678763</v>
+        <v>0.9989231668339367</v>
       </c>
       <c r="AL13" s="4">
-        <v>0.002446865852736934</v>
+        <v>0.002446521512565081</v>
       </c>
       <c r="AM13" s="4">
-        <v>0.9990622606678763</v>
+        <v>0.9989231668339367</v>
       </c>
       <c r="AN13" s="4">
-        <v>0.002446865852736934</v>
+        <v>0.002446521512565081</v>
       </c>
       <c r="AO13" s="4" t="s">
         <v>123</v>
@@ -4531,16 +4531,16 @@
         <v>124</v>
       </c>
       <c r="AR13" s="4">
-        <v>2.300413070947226E-05</v>
+        <v>2.300052706083394E-05</v>
       </c>
       <c r="AS13" s="4">
-        <v>1.532929091140197E-07</v>
+        <v>1.532688954362082E-07</v>
       </c>
       <c r="AT13" s="4">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU13" s="4">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV13" s="4" t="s">
         <v>123</v>
@@ -4584,19 +4584,19 @@
         <v>0.937339033773181</v>
       </c>
       <c r="D14">
-        <v>0.3357594109903039</v>
+        <v>0.003147204018779038</v>
       </c>
       <c r="E14">
         <v>1.223802820214978</v>
       </c>
       <c r="F14">
-        <v>0.00499679801452334</v>
+        <v>6.115095502218266E-05</v>
       </c>
       <c r="G14">
         <v>168.7391566540614</v>
       </c>
       <c r="H14">
-        <v>0.008431554829413568</v>
+        <v>0.00761831329119293</v>
       </c>
       <c r="I14">
         <v>0.3</v>
@@ -4608,10 +4608,10 @@
         <v>0.1170910660239547</v>
       </c>
       <c r="L14">
-        <v>0.4815698053962311</v>
+        <v>0.4814787166054446</v>
       </c>
       <c r="M14">
-        <v>0.001616915942105538</v>
+        <v>0.001616610102918115</v>
       </c>
       <c r="N14">
         <v>0.005</v>
@@ -4623,16 +4623,16 @@
         <v>3.160028408937892E-05</v>
       </c>
       <c r="Q14">
-        <v>0.4718673662308168</v>
+        <v>0.4718658038505328</v>
       </c>
       <c r="R14">
-        <v>2.357825918700503E-05</v>
+        <v>2.357818111801802E-05</v>
       </c>
       <c r="S14">
-        <v>1.01420818985039</v>
+        <v>1.014193814623575</v>
       </c>
       <c r="T14">
-        <v>0.001177868146927319</v>
+        <v>0.001177851452010102</v>
       </c>
       <c r="U14">
         <v>1.016715553044661</v>
@@ -4650,31 +4650,31 @@
         <v>0.000113901069044418</v>
       </c>
       <c r="Z14">
-        <v>9.781577945103909E-06</v>
+        <v>9.780013256694141E-06</v>
       </c>
       <c r="AA14">
-        <v>2.781203453587039E-08</v>
+        <v>2.780758564548332E-08</v>
       </c>
       <c r="AB14">
         <v>0.05</v>
       </c>
       <c r="AC14">
-        <v>0.1448326726410947</v>
+        <v>0.1448673437755328</v>
       </c>
       <c r="AD14">
-        <v>0.001715102070212656</v>
+        <v>0.00171510358192521</v>
       </c>
       <c r="AE14">
-        <v>0.006612091667833867</v>
+        <v>0.006612721891350035</v>
       </c>
       <c r="AF14">
-        <v>7.830009555951533E-05</v>
+        <v>7.828888627724808E-05</v>
       </c>
       <c r="AG14">
-        <v>675.9739282293913</v>
+        <v>676.1465161434024</v>
       </c>
       <c r="AH14">
-        <v>8.232360880998202</v>
+        <v>8.232606284589403</v>
       </c>
       <c r="AI14">
         <v>16.71555304466121</v>
@@ -4683,49 +4683,49 @@
         <v>1.180780116352201</v>
       </c>
       <c r="AK14">
-        <v>0.01401260638270018</v>
+        <v>0.01401398837845148</v>
       </c>
       <c r="AL14">
-        <v>0.0001659381390157392</v>
+        <v>0.0001659149337082214</v>
       </c>
       <c r="AM14">
-        <v>0.01400911562070196</v>
+        <v>0.01401244817068463</v>
       </c>
       <c r="AN14">
-        <v>0.0001658968011993536</v>
+        <v>0.000165896698823003</v>
       </c>
       <c r="AO14">
-        <v>1.5171</v>
+        <v>1.5133</v>
       </c>
       <c r="AP14">
         <v>0.0183</v>
       </c>
       <c r="AQ14">
-        <v>1.206248764089381</v>
+        <v>1.209277737395097</v>
       </c>
       <c r="AR14">
-        <v>2.072950715629525E-05</v>
+        <v>2.072625983253501E-05</v>
       </c>
       <c r="AS14">
-        <v>5.894946536411603E-08</v>
+        <v>5.894023079823428E-08</v>
       </c>
       <c r="AT14">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU14">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV14">
-        <v>1.4951</v>
+        <v>1.5116</v>
       </c>
       <c r="AW14">
-        <v>0.0202126229</v>
+        <v>0.0179162468</v>
       </c>
       <c r="AX14">
-        <v>0.02018963075555562</v>
+        <v>0.01814612811226169</v>
       </c>
       <c r="AY14">
-        <v>1.351924479967895</v>
+        <v>1.185250516009526</v>
       </c>
       <c r="AZ14" t="s">
         <v>31</v>
@@ -4734,19 +4734,19 @@
         <v>162.5</v>
       </c>
       <c r="BB14">
-        <v>16.78623034078847</v>
+        <v>16.78701098891804</v>
       </c>
       <c r="BC14">
-        <v>1.185773119455414</v>
+        <v>1.185828181284291</v>
       </c>
       <c r="BD14">
-        <v>1437.1</v>
+        <v>1453.6</v>
       </c>
       <c r="BE14">
-        <v>10.09481537777781</v>
+        <v>9.073064056130844</v>
       </c>
       <c r="BF14">
-        <v>1.350386646749757</v>
+        <v>1.200458329734168</v>
       </c>
     </row>
     <row r="15" spans="1:58" s="4" customFormat="1">
@@ -4760,19 +4760,19 @@
         <v>2.107049376569273</v>
       </c>
       <c r="D15" s="4">
-        <v>0.882968860282688</v>
+        <v>0.01860458986588719</v>
       </c>
       <c r="E15" s="4">
         <v>2.731608239009467</v>
       </c>
       <c r="F15" s="4">
-        <v>0.01089181502435076</v>
+        <v>0.0002975217165828362</v>
       </c>
       <c r="G15" s="4">
         <v>376.6368756028643</v>
       </c>
       <c r="H15" s="4">
-        <v>0.04102259180415805</v>
+        <v>0.02416550444696851</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
@@ -4784,10 +4784,10 @@
         <v>6.71695540792321</v>
       </c>
       <c r="L15" s="4">
-        <v>10.50487189586647</v>
+        <v>10.50288490235559</v>
       </c>
       <c r="M15" s="4">
-        <v>0.09275474765308857</v>
+        <v>0.09273720311913161</v>
       </c>
       <c r="N15" s="4">
         <v>0</v>
@@ -4799,22 +4799,22 @@
         <v>0.001491959248085548</v>
       </c>
       <c r="Q15" s="4">
-        <v>10.22062500154519</v>
+        <v>10.22059116046158</v>
       </c>
       <c r="R15" s="4">
-        <v>0.001113211569500848</v>
+        <v>0.00111320788359262</v>
       </c>
       <c r="S15" s="4">
-        <v>0.9985303199511054</v>
+        <v>0.9985161669399442</v>
       </c>
       <c r="T15" s="4">
-        <v>0.001356334429680709</v>
+        <v>0.001356315205210567</v>
       </c>
       <c r="U15" s="4">
-        <v>0.9985303199511054</v>
+        <v>0.9985161669399442</v>
       </c>
       <c r="V15" s="4">
-        <v>0.001356334429680709</v>
+        <v>0.001356315205210567</v>
       </c>
       <c r="W15" s="4">
         <v>0</v>
@@ -4826,49 +4826,49 @@
         <v>0.005735794635430863</v>
       </c>
       <c r="Z15" s="4">
-        <v>0.000235455670291139</v>
+        <v>0.0002354180061473386</v>
       </c>
       <c r="AA15" s="4">
-        <v>1.400549791407608E-06</v>
+        <v>1.400325755568174E-06</v>
       </c>
       <c r="AB15" s="4">
         <v>0</v>
       </c>
       <c r="AC15" s="4">
-        <v>224.1962654226187</v>
+        <v>224.1966019553861</v>
       </c>
       <c r="AD15" s="4">
-        <v>0.6785748221225032</v>
+        <v>0.6785748229647039</v>
       </c>
       <c r="AE15" s="4">
-        <v>10.23530279133819</v>
+        <v>10.23384386762715</v>
       </c>
       <c r="AF15" s="4">
-        <v>0.03097919029966842</v>
+        <v>0.03097472811878487</v>
       </c>
       <c r="AG15" s="4">
-        <v>43470.19028542539</v>
+        <v>43470.94784764341</v>
       </c>
       <c r="AH15" s="4">
-        <v>290.1211732194589</v>
+        <v>290.1261397163332</v>
       </c>
       <c r="AI15" s="4">
-        <v>-1.469680048894584</v>
+        <v>-1.483833060055839</v>
       </c>
       <c r="AJ15" s="4">
-        <v>1.356334429680708</v>
+        <v>1.356315205210567</v>
       </c>
       <c r="AK15" s="4">
-        <v>1.001436095130267</v>
+        <v>1.001296667380341</v>
       </c>
       <c r="AL15" s="4">
-        <v>0.003033008496254516</v>
+        <v>0.003032581674686773</v>
       </c>
       <c r="AM15" s="4">
-        <v>1.001436095130267</v>
+        <v>1.001296667380341</v>
       </c>
       <c r="AN15" s="4">
-        <v>0.003033008496254515</v>
+        <v>0.003032581674686773</v>
       </c>
       <c r="AO15" s="4" t="s">
         <v>123</v>
@@ -4880,16 +4880,16 @@
         <v>124</v>
       </c>
       <c r="AR15" s="4">
-        <v>2.303730645195789E-05</v>
+        <v>2.303369760626514E-05</v>
       </c>
       <c r="AS15" s="4">
-        <v>1.37054687682032E-07</v>
+        <v>1.370332177580049E-07</v>
       </c>
       <c r="AT15" s="4">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU15" s="4">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV15" s="4" t="s">
         <v>123</v>
@@ -4933,19 +4933,19 @@
         <v>2.506202038867788</v>
       </c>
       <c r="D16">
-        <v>0.2343070566058561</v>
+        <v>0.005872208229867068</v>
       </c>
       <c r="E16">
         <v>3.301919378547065</v>
       </c>
       <c r="F16">
-        <v>0.00503181376156186</v>
+        <v>0.0001661464336854091</v>
       </c>
       <c r="G16">
         <v>455.2719458334479</v>
       </c>
       <c r="H16">
-        <v>0.02290843642297789</v>
+        <v>0.01590547735506808</v>
       </c>
       <c r="I16">
         <v>0.3</v>
@@ -4957,10 +4957,10 @@
         <v>0.2268019582551398</v>
       </c>
       <c r="L16">
-        <v>1.336672812419527</v>
+        <v>1.336419981139833</v>
       </c>
       <c r="M16">
-        <v>0.00313191872323091</v>
+        <v>0.00313132632170128</v>
       </c>
       <c r="N16">
         <v>0.005</v>
@@ -4972,22 +4972,22 @@
         <v>8.912990943670092E-05</v>
       </c>
       <c r="Q16">
-        <v>1.321659728712106</v>
+        <v>1.321655352619903</v>
       </c>
       <c r="R16">
-        <v>6.650345611035689E-05</v>
+        <v>6.650323591354721E-05</v>
       </c>
       <c r="S16">
-        <v>1.007748901417679</v>
+        <v>1.007734617743799</v>
       </c>
       <c r="T16">
-        <v>0.0006264419337740797</v>
+        <v>0.0006264330546849789</v>
       </c>
       <c r="U16">
         <v>1.009232149772903</v>
       </c>
       <c r="V16">
-        <v>0.0006273639580666457</v>
+        <v>0.0006273639580666456</v>
       </c>
       <c r="W16">
         <v>0.003</v>
@@ -4999,82 +4999,82 @@
         <v>0.000932267511918924</v>
       </c>
       <c r="Z16">
-        <v>0.0001248630130286323</v>
+        <v>0.0001248430395938357</v>
       </c>
       <c r="AA16">
-        <v>2.276383922968082E-07</v>
+        <v>2.276019786265349E-07</v>
       </c>
       <c r="AB16">
         <v>0.05</v>
       </c>
       <c r="AC16">
-        <v>0.1747622504812372</v>
+        <v>0.1747982451830519</v>
       </c>
       <c r="AD16">
-        <v>0.001670456134160975</v>
+        <v>0.001670457102423329</v>
       </c>
       <c r="AE16">
-        <v>0.007978476121354197</v>
+        <v>0.007978969948414009</v>
       </c>
       <c r="AF16">
-        <v>7.626186056469826E-05</v>
+        <v>7.625092006154072E-05</v>
       </c>
       <c r="AG16">
-        <v>63.8978343372561</v>
+        <v>63.91201283125427</v>
       </c>
       <c r="AH16">
-        <v>0.6217744165899959</v>
+        <v>0.621789162543042</v>
       </c>
       <c r="AI16">
-        <v>9.23214977290332</v>
+        <v>9.232149772903098</v>
       </c>
       <c r="AJ16">
-        <v>0.6273639580666457</v>
+        <v>0.6273639580666456</v>
       </c>
       <c r="AK16">
-        <v>0.006036709712816051</v>
+        <v>0.006037103343619336</v>
       </c>
       <c r="AL16">
-        <v>5.770238405575774E-05</v>
+        <v>5.769429744698996E-05</v>
       </c>
       <c r="AM16">
-        <v>0.006028052855465324</v>
+        <v>0.006029285365958531</v>
       </c>
       <c r="AN16">
-        <v>5.7619636775976E-05</v>
+        <v>5.761958401193287E-05</v>
       </c>
       <c r="AO16">
-        <v>0.6552</v>
+        <v>0.6534</v>
       </c>
       <c r="AP16">
-        <v>0.007900000000000001</v>
+        <v>0.0071</v>
       </c>
       <c r="AQ16">
-        <v>1.205738705738706</v>
+        <v>1.086623813896541</v>
       </c>
       <c r="AR16">
-        <v>9.447440238669096E-05</v>
+        <v>9.445960275979715E-05</v>
       </c>
       <c r="AS16">
-        <v>1.723023523095459E-07</v>
+        <v>1.72275360759849E-07</v>
       </c>
       <c r="AT16">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU16">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV16">
-        <v>0.5716</v>
+        <v>0.6457000000000001</v>
       </c>
       <c r="AW16">
-        <v>0.0407988097</v>
+        <v>0.0073435176</v>
       </c>
       <c r="AX16">
-        <v>0.04133973514555856</v>
+        <v>0.007350994470444211</v>
       </c>
       <c r="AY16">
-        <v>7.137650402379286</v>
+        <v>1.137295586185535</v>
       </c>
       <c r="AZ16" t="s">
         <v>32</v>
@@ -5083,19 +5083,19 @@
         <v>36</v>
       </c>
       <c r="BB16">
-        <v>9.247054285906476</v>
+        <v>9.248987971116945</v>
       </c>
       <c r="BC16">
-        <v>0.6283776852808949</v>
+        <v>0.6285082146881845</v>
       </c>
       <c r="BD16">
-        <v>513.6</v>
+        <v>587.7</v>
       </c>
       <c r="BE16">
-        <v>20.66986757277928</v>
+        <v>3.675497235222105</v>
       </c>
       <c r="BF16">
-        <v>7.232283965283163</v>
+        <v>1.138453534217781</v>
       </c>
     </row>
     <row r="17" spans="1:58" s="4" customFormat="1">
@@ -5109,19 +5109,19 @@
         <v>2.107049376569273</v>
       </c>
       <c r="D17" s="4">
-        <v>0.882968860282688</v>
+        <v>0.01860458986588719</v>
       </c>
       <c r="E17" s="4">
         <v>2.731608239009467</v>
       </c>
       <c r="F17" s="4">
-        <v>0.01089181502435076</v>
+        <v>0.0002975217165828362</v>
       </c>
       <c r="G17" s="4">
         <v>376.6368756028643</v>
       </c>
       <c r="H17" s="4">
-        <v>0.04102259180415805</v>
+        <v>0.02416550444696851</v>
       </c>
       <c r="I17" s="4">
         <v>0</v>
@@ -5133,10 +5133,10 @@
         <v>6.71695540792321</v>
       </c>
       <c r="L17" s="4">
-        <v>10.50487189586647</v>
+        <v>10.50288490235559</v>
       </c>
       <c r="M17" s="4">
-        <v>0.09275474765308857</v>
+        <v>0.09273720311913161</v>
       </c>
       <c r="N17" s="4">
         <v>0</v>
@@ -5148,22 +5148,22 @@
         <v>0.001491959248085548</v>
       </c>
       <c r="Q17" s="4">
-        <v>10.22062500154519</v>
+        <v>10.22059116046158</v>
       </c>
       <c r="R17" s="4">
-        <v>0.001113211569500848</v>
+        <v>0.00111320788359262</v>
       </c>
       <c r="S17" s="4">
-        <v>0.9985303199511054</v>
+        <v>0.9985161669399442</v>
       </c>
       <c r="T17" s="4">
-        <v>0.001356334429680709</v>
+        <v>0.001356315205210567</v>
       </c>
       <c r="U17" s="4">
-        <v>0.9985303199511054</v>
+        <v>0.9985161669399442</v>
       </c>
       <c r="V17" s="4">
-        <v>0.001356334429680709</v>
+        <v>0.001356315205210567</v>
       </c>
       <c r="W17" s="4">
         <v>0</v>
@@ -5175,49 +5175,49 @@
         <v>0.005735794635430863</v>
       </c>
       <c r="Z17" s="4">
-        <v>0.000235455670291139</v>
+        <v>0.0002354180061473386</v>
       </c>
       <c r="AA17" s="4">
-        <v>1.400549791407608E-06</v>
+        <v>1.400325755568174E-06</v>
       </c>
       <c r="AB17" s="4">
         <v>0</v>
       </c>
       <c r="AC17" s="4">
-        <v>224.1962654226187</v>
+        <v>224.1966019553861</v>
       </c>
       <c r="AD17" s="4">
-        <v>0.6785748221225032</v>
+        <v>0.6785748229647039</v>
       </c>
       <c r="AE17" s="4">
-        <v>10.23530279133819</v>
+        <v>10.23384386762715</v>
       </c>
       <c r="AF17" s="4">
-        <v>0.03097919029966842</v>
+        <v>0.03097472811878487</v>
       </c>
       <c r="AG17" s="4">
-        <v>43470.19028542539</v>
+        <v>43470.94784764341</v>
       </c>
       <c r="AH17" s="4">
-        <v>290.1211732194589</v>
+        <v>290.1261397163332</v>
       </c>
       <c r="AI17" s="4">
-        <v>-1.469680048894584</v>
+        <v>-1.483833060055839</v>
       </c>
       <c r="AJ17" s="4">
-        <v>1.356334429680708</v>
+        <v>1.356315205210567</v>
       </c>
       <c r="AK17" s="4">
-        <v>1.001436095130267</v>
+        <v>1.001296667380341</v>
       </c>
       <c r="AL17" s="4">
-        <v>0.003033008496254516</v>
+        <v>0.003032581674686773</v>
       </c>
       <c r="AM17" s="4">
-        <v>1.001436095130267</v>
+        <v>1.001296667380341</v>
       </c>
       <c r="AN17" s="4">
-        <v>0.003033008496254515</v>
+        <v>0.003032581674686773</v>
       </c>
       <c r="AO17" s="4" t="s">
         <v>123</v>
@@ -5229,16 +5229,16 @@
         <v>124</v>
       </c>
       <c r="AR17" s="4">
-        <v>2.303730645195789E-05</v>
+        <v>2.303369760626514E-05</v>
       </c>
       <c r="AS17" s="4">
-        <v>1.37054687682032E-07</v>
+        <v>1.370332177580049E-07</v>
       </c>
       <c r="AT17" s="4">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU17" s="4">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV17" s="4" t="s">
         <v>123</v>
@@ -5287,14 +5287,14 @@
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
     <col min="8" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" customWidth="1"/>
@@ -5366,7 +5366,7 @@
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1">
       <c r="C2" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>109</v>
@@ -5425,10 +5425,10 @@
         <v>25</v>
       </c>
       <c r="C3" s="4">
-        <v>13.70118282804834</v>
+        <v>13701.18282804834</v>
       </c>
       <c r="D3" s="4">
-        <v>0.001449630221586743</v>
+        <v>1.449630221586742</v>
       </c>
       <c r="E3" s="4">
         <v>0.9624555902429579</v>
@@ -5437,22 +5437,22 @@
         <v>0.005024637815961471</v>
       </c>
       <c r="G3" s="4">
-        <v>0.9980623209227738</v>
+        <v>0.9979233675385734</v>
       </c>
       <c r="H3" s="4">
-        <v>0.003055973296395021</v>
+        <v>0.003055543240370879</v>
       </c>
       <c r="I3" s="4">
-        <v>43416.10043468849</v>
+        <v>43416.85725625794</v>
       </c>
       <c r="J3" s="4">
-        <v>262.7273133400934</v>
+        <v>262.7317920274319</v>
       </c>
       <c r="K3" s="4">
-        <v>-2.043596356763877</v>
+        <v>-2.057741233326138</v>
       </c>
       <c r="L3" s="4">
-        <v>1.504159094322598</v>
+        <v>1.50413777460899</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>123</v>
@@ -5481,10 +5481,10 @@
         <v>26</v>
       </c>
       <c r="C4">
-        <v>1.186316720206925</v>
+        <v>1186.316720206925</v>
       </c>
       <c r="D4">
-        <v>4.775060295905169E-05</v>
+        <v>0.04775060295905169</v>
       </c>
       <c r="E4">
         <v>0.02083874994078009</v>
@@ -5493,16 +5493,16 @@
         <v>0.0001010882601516288</v>
       </c>
       <c r="G4">
-        <v>0.003949618391180693</v>
+        <v>0.003951720684140137</v>
       </c>
       <c r="H4">
-        <v>6.423396701092875E-05</v>
+        <v>6.42341079485825E-05</v>
       </c>
       <c r="I4">
-        <v>685.8459234809413</v>
+        <v>686.2229455383076</v>
       </c>
       <c r="J4">
-        <v>11.63972485139752</v>
+        <v>11.64045748130666</v>
       </c>
       <c r="K4">
         <v>12.81982357248146</v>
@@ -5511,22 +5511,22 @@
         <v>0.6671804603415393</v>
       </c>
       <c r="M4">
-        <v>0.4266</v>
+        <v>0.4263</v>
       </c>
       <c r="N4">
         <v>0.0078</v>
       </c>
       <c r="O4">
-        <v>0.4211</v>
+        <v>0.4258</v>
       </c>
       <c r="P4">
-        <v>0.0073874084</v>
+        <v>0.0068401855</v>
       </c>
       <c r="Q4">
-        <v>12.8350675313736</v>
+        <v>12.83523755656005</v>
       </c>
       <c r="R4">
-        <v>0.6679738533668335</v>
+        <v>0.6679826943192309</v>
       </c>
       <c r="S4">
         <v>19</v>
@@ -5540,10 +5540,10 @@
         <v>25</v>
       </c>
       <c r="C5" s="4">
-        <v>13.69933853789272</v>
+        <v>13699.33853789272</v>
       </c>
       <c r="D5" s="4">
-        <v>0.001423106824204759</v>
+        <v>1.423106824204759</v>
       </c>
       <c r="E5" s="4">
         <v>0.9559448559649528</v>
@@ -5552,22 +5552,22 @@
         <v>0.00364201928646096</v>
       </c>
       <c r="G5" s="4">
-        <v>0.9983794223997262</v>
+        <v>0.9982404243042557</v>
       </c>
       <c r="H5" s="4">
-        <v>0.002963442436037141</v>
+        <v>0.002963025406110438</v>
       </c>
       <c r="I5" s="4">
-        <v>43719.80028746471</v>
+        <v>43720.56237839907</v>
       </c>
       <c r="J5" s="4">
-        <v>211.1027736630517</v>
+        <v>211.1063336800885</v>
       </c>
       <c r="K5" s="4">
-        <v>-3.80273985714108</v>
+        <v>-3.816859799880779</v>
       </c>
       <c r="L5" s="4">
-        <v>1.530512610567441</v>
+        <v>1.530490917323254</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>123</v>
@@ -5596,10 +5596,10 @@
         <v>27</v>
       </c>
       <c r="C6">
-        <v>0.9801591795303184</v>
+        <v>980.1591795303184</v>
       </c>
       <c r="D6">
-        <v>4.87301575619043E-05</v>
+        <v>0.0487301575619043</v>
       </c>
       <c r="E6">
         <v>0.05518344747238442</v>
@@ -5608,40 +5608,40 @@
         <v>0.0001614857798634256</v>
       </c>
       <c r="G6">
-        <v>0.00763594924184902</v>
+        <v>0.007637842693900923</v>
       </c>
       <c r="H6">
-        <v>7.372888256726878E-05</v>
+        <v>7.372883400827361E-05</v>
       </c>
       <c r="I6">
-        <v>413.606351121788</v>
+        <v>413.7161229409318</v>
       </c>
       <c r="J6">
-        <v>4.172909645876111</v>
+        <v>4.173066908243699</v>
       </c>
       <c r="K6">
-        <v>10.58849184009869</v>
+        <v>10.58849184009847</v>
       </c>
       <c r="L6">
-        <v>0.8503437865829866</v>
+        <v>0.8503437865829863</v>
       </c>
       <c r="M6">
-        <v>0.8270999999999999</v>
+        <v>0.8273</v>
       </c>
       <c r="N6">
-        <v>0.008500000000000001</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="O6">
-        <v>0.8112</v>
+        <v>0.8258</v>
       </c>
       <c r="P6">
-        <v>0.0112817119</v>
+        <v>0.0081047898</v>
       </c>
       <c r="Q6">
-        <v>10.6127597097908</v>
+        <v>10.61319664215399</v>
       </c>
       <c r="R6">
-        <v>0.8522927649374851</v>
+        <v>0.8523278218228314</v>
       </c>
       <c r="S6">
         <v>52</v>
@@ -5655,10 +5655,10 @@
         <v>25</v>
       </c>
       <c r="C7" s="4">
-        <v>13.69915089929962</v>
+        <v>13699.15089929962</v>
       </c>
       <c r="D7" s="4">
-        <v>0.001614191900461489</v>
+        <v>1.614191900461489</v>
       </c>
       <c r="E7" s="4">
         <v>0.9586955389739225</v>
@@ -5667,37 +5667,37 @@
         <v>0.004826552531443986</v>
       </c>
       <c r="G7" s="4">
-        <v>0.9975748535332862</v>
+        <v>0.9974359686304465</v>
       </c>
       <c r="H7" s="4">
-        <v>0.002849964831768674</v>
+        <v>0.002849563763424285</v>
       </c>
       <c r="I7" s="4">
-        <v>43558.63149580805</v>
+        <v>43559.39082879404</v>
       </c>
       <c r="J7" s="4">
-        <v>252.09176730753</v>
+        <v>252.0960694188041</v>
       </c>
       <c r="K7" s="4">
-        <v>-0.4520556278893029</v>
+        <v>-0.4662230626985009</v>
       </c>
       <c r="L7" s="4">
-        <v>1.490510845541379</v>
+        <v>1.490489719275895</v>
       </c>
       <c r="M7" s="4">
-        <v>690.3634</v>
+        <v>683.3040999999999</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>124</v>
       </c>
       <c r="O7" s="4">
-        <v>690.3434</v>
+        <v>683.3022</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>124</v>
       </c>
       <c r="Q7" s="4">
-        <v>-3.171701113973618</v>
+        <v>-3.206656233653157</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>124</v>
@@ -5711,10 +5711,10 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>1.050386684779172</v>
+        <v>1050.386684779172</v>
       </c>
       <c r="D8">
-        <v>5.95081833313798E-05</v>
+        <v>0.0595081833313798</v>
       </c>
       <c r="E8">
         <v>0.06031321355512585</v>
@@ -5723,16 +5723,16 @@
         <v>0.0001584309866576819</v>
       </c>
       <c r="G8">
-        <v>0.008188528603021345</v>
+        <v>0.008190377831971419</v>
       </c>
       <c r="H8">
-        <v>8.233425647764465E-05</v>
+        <v>8.233419099310125E-05</v>
       </c>
       <c r="I8">
-        <v>434.9347504449723</v>
+        <v>435.0405558422032</v>
       </c>
       <c r="J8">
-        <v>4.519900843722522</v>
+        <v>4.52004146242034</v>
       </c>
       <c r="K8">
         <v>10.34546355975419</v>
@@ -5741,22 +5741,22 @@
         <v>0.6599583760083745</v>
       </c>
       <c r="M8">
-        <v>0.8864</v>
+        <v>0.8875999999999999</v>
       </c>
       <c r="N8">
-        <v>0.0097</v>
+        <v>0.0094</v>
       </c>
       <c r="O8">
-        <v>0.8711</v>
+        <v>0.886</v>
       </c>
       <c r="P8">
-        <v>0.0122996176</v>
+        <v>0.00898766</v>
       </c>
       <c r="Q8">
-        <v>10.370927423222</v>
+        <v>10.37136315496444</v>
       </c>
       <c r="R8">
-        <v>0.6615828661139012</v>
+        <v>0.661610616695081</v>
       </c>
       <c r="S8">
         <v>69</v>
@@ -5770,10 +5770,10 @@
         <v>25</v>
       </c>
       <c r="C9" s="4">
-        <v>13.69850581832</v>
+        <v>13698.50581832</v>
       </c>
       <c r="D9" s="4">
-        <v>0.001772333129394309</v>
+        <v>1.772333129394309</v>
       </c>
       <c r="E9" s="4">
         <v>0.9560686077791912</v>
@@ -5782,22 +5782,22 @@
         <v>0.006879442002812573</v>
       </c>
       <c r="G9" s="4">
-        <v>0.9985867789429622</v>
+        <v>0.9984477516884488</v>
       </c>
       <c r="H9" s="4">
-        <v>0.003289320201334842</v>
+        <v>0.003288857305951554</v>
       </c>
       <c r="I9" s="4">
-        <v>43720.5626683964</v>
+        <v>43721.32475991702</v>
       </c>
       <c r="J9" s="4">
-        <v>345.9440783152731</v>
+        <v>345.9500183460893</v>
       </c>
       <c r="K9" s="4">
-        <v>-1.229123681971034</v>
+        <v>-1.243280102740218</v>
       </c>
       <c r="L9" s="4">
-        <v>1.999757396669946</v>
+        <v>1.999729052424219</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>123</v>
@@ -5826,10 +5826,10 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>1.131860529726503</v>
+        <v>1131.860529726503</v>
       </c>
       <c r="D10">
-        <v>5.667916986329242E-05</v>
+        <v>0.05667916986329242</v>
       </c>
       <c r="E10">
         <v>0.03099712229933367</v>
@@ -5838,40 +5838,40 @@
         <v>0.0001041681144664694</v>
       </c>
       <c r="G10">
-        <v>0.009943772282544169</v>
+        <v>0.009945534929701775</v>
       </c>
       <c r="H10">
-        <v>7.900171764089544E-05</v>
+        <v>7.900162927472403E-05</v>
       </c>
       <c r="I10">
-        <v>1108.211952743943</v>
+        <v>1108.427716259602</v>
       </c>
       <c r="J10">
-        <v>9.559668530582464</v>
+        <v>9.560083242395304</v>
       </c>
       <c r="K10">
-        <v>12.2745644476312</v>
+        <v>12.27456444763098</v>
       </c>
       <c r="L10">
-        <v>0.6252446570446815</v>
+        <v>0.6252446570446812</v>
       </c>
       <c r="M10">
         <v>1.0766</v>
       </c>
       <c r="N10">
-        <v>0.0095</v>
+        <v>0.0092</v>
       </c>
       <c r="O10">
-        <v>1.0687</v>
+        <v>1.0759</v>
       </c>
       <c r="P10">
-        <v>0.0092721852</v>
+        <v>0.0084484013</v>
       </c>
       <c r="Q10">
-        <v>12.31164014892994</v>
+        <v>12.31188978331035</v>
       </c>
       <c r="R10">
-        <v>0.6271333106032276</v>
+        <v>0.6271460124875351</v>
       </c>
       <c r="S10">
         <v>105.5</v>
@@ -5885,10 +5885,10 @@
         <v>25</v>
       </c>
       <c r="C11" s="4">
-        <v>13.69797452749289</v>
+        <v>13697.97452749289</v>
       </c>
       <c r="D11" s="4">
-        <v>0.002200848263931516</v>
+        <v>2.200848263931515</v>
       </c>
       <c r="E11" s="4">
         <v>0.9550217955752691</v>
@@ -5897,22 +5897,22 @@
         <v>0.005745749129963857</v>
       </c>
       <c r="G11" s="4">
-        <v>0.9990398843258403</v>
+        <v>0.9989007933924758</v>
       </c>
       <c r="H11" s="4">
-        <v>0.002871329060420849</v>
+        <v>0.002870924994768869</v>
       </c>
       <c r="I11" s="4">
-        <v>43786.64685367866</v>
+        <v>43787.41007099728</v>
       </c>
       <c r="J11" s="4">
-        <v>291.8671022022075</v>
+        <v>291.8721081654925</v>
       </c>
       <c r="K11" s="4">
-        <v>-1.379381632204302</v>
+        <v>-1.393535923240985</v>
       </c>
       <c r="L11" s="4">
-        <v>1.708908218159415</v>
+        <v>1.708883996364041</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>123</v>
@@ -5941,10 +5941,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>0.5268169011439808</v>
+        <v>526.8169011439809</v>
       </c>
       <c r="D12">
-        <v>3.435009050826131E-05</v>
+        <v>0.03435009050826131</v>
       </c>
       <c r="E12">
         <v>0.9129443331388273</v>
@@ -5953,16 +5953,16 @@
         <v>0.002422761819904845</v>
       </c>
       <c r="G12">
-        <v>0.01553581882120513</v>
+        <v>0.01554042712816793</v>
       </c>
       <c r="H12">
-        <v>0.0003258771196243427</v>
+        <v>0.0003258769876355586</v>
       </c>
       <c r="I12">
-        <v>27.3686282841275</v>
+        <v>27.37722368384236</v>
       </c>
       <c r="J12">
-        <v>0.5786539297686056</v>
+        <v>0.5786664882355141</v>
       </c>
       <c r="K12">
         <v>15.97386317203431</v>
@@ -5971,22 +5971,22 @@
         <v>1.710163878560172</v>
       </c>
       <c r="M12">
-        <v>1.6828</v>
+        <v>1.6808</v>
       </c>
       <c r="N12">
-        <v>0.0353</v>
+        <v>0.0356</v>
       </c>
       <c r="O12">
-        <v>1.1923</v>
+        <v>1.6351</v>
       </c>
       <c r="P12">
-        <v>0.2492845134</v>
+        <v>0.041956368</v>
       </c>
       <c r="Q12">
-        <v>16.02770239241553</v>
+        <v>16.04774249389801</v>
       </c>
       <c r="R12">
-        <v>1.715964958776091</v>
+        <v>1.718074459126465</v>
       </c>
       <c r="S12">
         <v>117</v>
@@ -6000,10 +6000,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="4">
-        <v>13.69812723072646</v>
+        <v>13698.12723072646</v>
       </c>
       <c r="D13" s="4">
-        <v>0.001328377354164738</v>
+        <v>1.328377354164738</v>
       </c>
       <c r="E13" s="4">
         <v>0.9629036057651643</v>
@@ -6012,22 +6012,22 @@
         <v>0.00641583313092309</v>
       </c>
       <c r="G13" s="4">
-        <v>0.9990622606678763</v>
+        <v>0.9989231668339367</v>
       </c>
       <c r="H13" s="4">
-        <v>0.002446865852736934</v>
+        <v>0.002446521512565081</v>
       </c>
       <c r="I13" s="4">
-        <v>43429.68979290745</v>
+        <v>43430.44679767083</v>
       </c>
       <c r="J13" s="4">
-        <v>308.2732583587168</v>
+        <v>308.2785765845257</v>
       </c>
       <c r="K13" s="4">
-        <v>-3.462600541802918</v>
+        <v>-3.476725305623707</v>
       </c>
       <c r="L13" s="4">
-        <v>1.978122725656926</v>
+        <v>1.97809468805761</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>123</v>
@@ -6056,10 +6056,10 @@
         <v>31</v>
       </c>
       <c r="C14">
-        <v>0.6324106757473839</v>
+        <v>632.4106757473838</v>
       </c>
       <c r="D14">
-        <v>3.160028408937892E-05</v>
+        <v>0.03160028408937891</v>
       </c>
       <c r="E14">
         <v>0.0400593557242888</v>
@@ -6068,16 +6068,16 @@
         <v>0.000113901069044418</v>
       </c>
       <c r="G14">
-        <v>0.01400911562070196</v>
+        <v>0.01401244817068463</v>
       </c>
       <c r="H14">
-        <v>0.0001658968011993536</v>
+        <v>0.000165896698823003</v>
       </c>
       <c r="I14">
-        <v>675.9739282293913</v>
+        <v>676.1465161434024</v>
       </c>
       <c r="J14">
-        <v>8.232360880998202</v>
+        <v>8.232606284589403</v>
       </c>
       <c r="K14">
         <v>16.71555304466121</v>
@@ -6086,22 +6086,22 @@
         <v>1.180780116352201</v>
       </c>
       <c r="M14">
-        <v>1.5171</v>
+        <v>1.5133</v>
       </c>
       <c r="N14">
         <v>0.0183</v>
       </c>
       <c r="O14">
-        <v>1.4951</v>
+        <v>1.5116</v>
       </c>
       <c r="P14">
-        <v>0.0202126229</v>
+        <v>0.0179162468</v>
       </c>
       <c r="Q14">
-        <v>16.78623034078847</v>
+        <v>16.78701098891804</v>
       </c>
       <c r="R14">
-        <v>1.185773119455414</v>
+        <v>1.185828181284291</v>
       </c>
       <c r="S14">
         <v>162.5</v>
@@ -6115,10 +6115,10 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>13.69798554924028</v>
+        <v>13697.98554924028</v>
       </c>
       <c r="D15" s="4">
-        <v>0.001491959248085548</v>
+        <v>1.491959248085548</v>
       </c>
       <c r="E15" s="4">
         <v>0.9642822974400372</v>
@@ -6127,22 +6127,22 @@
         <v>0.005735794635430863</v>
       </c>
       <c r="G15" s="4">
-        <v>1.001436095130267</v>
+        <v>1.001296667380341</v>
       </c>
       <c r="H15" s="4">
-        <v>0.003033008496254515</v>
+        <v>0.003032581674686773</v>
       </c>
       <c r="I15" s="4">
-        <v>43470.19028542539</v>
+        <v>43470.94784764341</v>
       </c>
       <c r="J15" s="4">
-        <v>290.1211732194589</v>
+        <v>290.1261397163332</v>
       </c>
       <c r="K15" s="4">
-        <v>-1.469680048894584</v>
+        <v>-1.483833060055839</v>
       </c>
       <c r="L15" s="4">
-        <v>1.356334429680708</v>
+        <v>1.356315205210567</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>123</v>
@@ -6171,10 +6171,10 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>1.771327669508882</v>
+        <v>1771.327669508883</v>
       </c>
       <c r="D16">
-        <v>8.912990943670092E-05</v>
+        <v>0.08912990943670092</v>
       </c>
       <c r="E16">
         <v>0.5113624697152432</v>
@@ -6183,40 +6183,40 @@
         <v>0.000932267511918924</v>
       </c>
       <c r="G16">
-        <v>0.006028052855465324</v>
+        <v>0.006029285365958531</v>
       </c>
       <c r="H16">
-        <v>5.7619636775976E-05</v>
+        <v>5.761958401193287E-05</v>
       </c>
       <c r="I16">
-        <v>63.8978343372561</v>
+        <v>63.91201283125427</v>
       </c>
       <c r="J16">
-        <v>0.6217744165899959</v>
+        <v>0.621789162543042</v>
       </c>
       <c r="K16">
-        <v>9.23214977290332</v>
+        <v>9.232149772903098</v>
       </c>
       <c r="L16">
-        <v>0.6273639580666457</v>
+        <v>0.6273639580666456</v>
       </c>
       <c r="M16">
-        <v>0.6552</v>
+        <v>0.6534</v>
       </c>
       <c r="N16">
-        <v>0.007900000000000001</v>
+        <v>0.0071</v>
       </c>
       <c r="O16">
-        <v>0.5716</v>
+        <v>0.6457000000000001</v>
       </c>
       <c r="P16">
-        <v>0.0407988097</v>
+        <v>0.0073435176</v>
       </c>
       <c r="Q16">
-        <v>9.247054285906476</v>
+        <v>9.248987971116945</v>
       </c>
       <c r="R16">
-        <v>0.6283776852808949</v>
+        <v>0.6285082146881845</v>
       </c>
       <c r="S16" t="s">
         <v>36</v>
@@ -6230,10 +6230,10 @@
         <v>25</v>
       </c>
       <c r="C17" s="4">
-        <v>13.69798554924028</v>
+        <v>13697.98554924028</v>
       </c>
       <c r="D17" s="4">
-        <v>0.001491959248085548</v>
+        <v>1.491959248085548</v>
       </c>
       <c r="E17" s="4">
         <v>0.9642822974400372</v>
@@ -6242,22 +6242,22 @@
         <v>0.005735794635430863</v>
       </c>
       <c r="G17" s="4">
-        <v>1.001436095130267</v>
+        <v>1.001296667380341</v>
       </c>
       <c r="H17" s="4">
-        <v>0.003033008496254515</v>
+        <v>0.003032581674686773</v>
       </c>
       <c r="I17" s="4">
-        <v>43470.19028542539</v>
+        <v>43470.94784764341</v>
       </c>
       <c r="J17" s="4">
-        <v>290.1211732194589</v>
+        <v>290.1261397163332</v>
       </c>
       <c r="K17" s="4">
-        <v>-1.469680048894584</v>
+        <v>-1.483833060055839</v>
       </c>
       <c r="L17" s="4">
-        <v>1.356334429680708</v>
+        <v>1.356315205210567</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>123</v>

--- a/data/Nils_250221_20210225-101635/Results.xlsx
+++ b/data/Nils_250221_20210225-101635/Results.xlsx
@@ -2308,7 +2308,7 @@
     <col min="51" max="51" width="19.7109375" customWidth="1"/>
     <col min="52" max="52" width="12.7109375" customWidth="1"/>
     <col min="53" max="53" width="6.7109375" customWidth="1"/>
-    <col min="54" max="54" width="19.7109375" customWidth="1"/>
+    <col min="54" max="54" width="20.7109375" customWidth="1"/>
     <col min="55" max="55" width="19.7109375" customWidth="1"/>
     <col min="56" max="56" width="19.7109375" customWidth="1"/>
     <col min="57" max="57" width="19.7109375" customWidth="1"/>
@@ -2792,10 +2792,10 @@
         <v>1.20019562978047E-07</v>
       </c>
       <c r="AT3" s="4">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="AU3" s="4">
-        <v>0.375</v>
+        <v>4</v>
       </c>
       <c r="AV3" s="4" t="s">
         <v>123</v>
@@ -2953,10 +2953,10 @@
         <v>0.4263</v>
       </c>
       <c r="AP4">
-        <v>0.0078</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="AQ4">
-        <v>1.829697396199859</v>
+        <v>1.853155055125499</v>
       </c>
       <c r="AR4">
         <v>5.747608555240709E-06</v>
@@ -2965,22 +2965,22 @@
         <v>2.788246662568629E-08</v>
       </c>
       <c r="AT4">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="AU4">
-        <v>0.375</v>
+        <v>4</v>
       </c>
       <c r="AV4">
-        <v>0.4258</v>
+        <v>0.4213</v>
       </c>
       <c r="AW4">
-        <v>0.0068401855</v>
+        <v>0.0071802908</v>
       </c>
       <c r="AX4">
-        <v>0.006952316837697424</v>
+        <v>0.007376077534584326</v>
       </c>
       <c r="AY4">
-        <v>1.606431540629404</v>
+        <v>1.704317778305246</v>
       </c>
       <c r="AZ4" t="s">
         <v>26</v>
@@ -2989,19 +2989,19 @@
         <v>19</v>
       </c>
       <c r="BB4">
-        <v>12.83523755656005</v>
+        <v>12.83507455944778</v>
       </c>
       <c r="BC4">
-        <v>0.6679826943192309</v>
+        <v>0.6679742161634127</v>
       </c>
       <c r="BD4">
-        <v>367.8</v>
+        <v>363.3</v>
       </c>
       <c r="BE4">
-        <v>3.476158418848712</v>
+        <v>3.688038767292163</v>
       </c>
       <c r="BF4">
-        <v>1.632765814395825</v>
+        <v>1.750789825441331</v>
       </c>
     </row>
     <row r="5" spans="1:58" s="4" customFormat="1">
@@ -3141,10 +3141,10 @@
         <v>8.702022343127955E-08</v>
       </c>
       <c r="AT5" s="4">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="AU5" s="4">
-        <v>0.375</v>
+        <v>4</v>
       </c>
       <c r="AV5" s="4" t="s">
         <v>123</v>
@@ -3302,10 +3302,10 @@
         <v>0.8273</v>
       </c>
       <c r="AP6">
-        <v>0.008699999999999999</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="AQ6">
-        <v>1.051613683065393</v>
+        <v>1.015351142270035</v>
       </c>
       <c r="AR6">
         <v>1.842164410805804E-05</v>
@@ -3314,22 +3314,22 @@
         <v>5.391585690050805E-08</v>
       </c>
       <c r="AT6">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="AU6">
-        <v>0.375</v>
+        <v>4</v>
       </c>
       <c r="AV6">
-        <v>0.8258</v>
+        <v>0.8114</v>
       </c>
       <c r="AW6">
-        <v>0.0081047898</v>
+        <v>0.0113479214</v>
       </c>
       <c r="AX6">
-        <v>0.008080746629234392</v>
+        <v>0.01131192708832987</v>
       </c>
       <c r="AY6">
-        <v>0.9814470573988858</v>
+        <v>1.398560685235396</v>
       </c>
       <c r="AZ6" t="s">
         <v>27</v>
@@ -3338,19 +3338,19 @@
         <v>52</v>
       </c>
       <c r="BB6">
-        <v>10.61319664215399</v>
+        <v>10.61276535539819</v>
       </c>
       <c r="BC6">
-        <v>0.8523278218228314</v>
+        <v>0.8522932191132148</v>
       </c>
       <c r="BD6">
-        <v>767.8</v>
+        <v>753.4</v>
       </c>
       <c r="BE6">
-        <v>4.040373314617196</v>
+        <v>5.655963544164936</v>
       </c>
       <c r="BF6">
-        <v>0.9785355569428907</v>
+        <v>1.394124610343834</v>
       </c>
     </row>
     <row r="7" spans="1:58" s="4" customFormat="1">
@@ -3490,19 +3490,19 @@
         <v>1.153130544559063E-07</v>
       </c>
       <c r="AT7" s="4">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="AU7" s="4">
-        <v>0.375</v>
+        <v>4</v>
       </c>
       <c r="AV7" s="4">
-        <v>683.3022</v>
+        <v>683.284</v>
       </c>
       <c r="AW7" s="4" t="s">
         <v>124</v>
       </c>
       <c r="AX7" s="4">
-        <v>204.7333541029582</v>
+        <v>204.7331390773551</v>
       </c>
       <c r="AY7" s="4" t="s">
         <v>124</v>
@@ -3511,19 +3511,19 @@
         <v>25</v>
       </c>
       <c r="BB7" s="4">
-        <v>-3.206656233653157</v>
+        <v>-3.206491539234178</v>
       </c>
       <c r="BC7" s="4" t="s">
         <v>124</v>
       </c>
       <c r="BD7" s="4">
-        <v>683244.2</v>
+        <v>683226</v>
       </c>
       <c r="BE7" s="4">
-        <v>102366.6770514791</v>
+        <v>102366.5695386775</v>
       </c>
       <c r="BF7" s="4">
-        <v>29.96234376282679</v>
+        <v>29.96311037245934</v>
       </c>
     </row>
     <row r="8" spans="1:58">
@@ -3651,10 +3651,10 @@
         <v>0.8875999999999999</v>
       </c>
       <c r="AP8">
-        <v>0.0094</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="AQ8">
-        <v>1.059035601622353</v>
+        <v>1.047769265434881</v>
       </c>
       <c r="AR8">
         <v>1.878795155827022E-05</v>
@@ -3663,22 +3663,22 @@
         <v>4.936374201467389E-08</v>
       </c>
       <c r="AT8">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="AU8">
-        <v>0.375</v>
+        <v>4</v>
       </c>
       <c r="AV8">
-        <v>0.886</v>
+        <v>0.8713</v>
       </c>
       <c r="AW8">
-        <v>0.00898766</v>
+        <v>0.0122165271</v>
       </c>
       <c r="AX8">
-        <v>0.00900963431468612</v>
+        <v>0.01209915221237681</v>
       </c>
       <c r="AY8">
-        <v>1.014408577878104</v>
+        <v>1.402103420176747</v>
       </c>
       <c r="AZ8" t="s">
         <v>28</v>
@@ -3687,19 +3687,19 @@
         <v>69</v>
       </c>
       <c r="BB8">
-        <v>10.37136315496444</v>
+        <v>10.37093291533475</v>
       </c>
       <c r="BC8">
-        <v>0.661610616695081</v>
+        <v>0.661583215145599</v>
       </c>
       <c r="BD8">
-        <v>828</v>
+        <v>813.3</v>
       </c>
       <c r="BE8">
-        <v>4.50481715734306</v>
+        <v>6.049576106188407</v>
       </c>
       <c r="BF8">
-        <v>1.016888748835905</v>
+        <v>1.388632183217814</v>
       </c>
     </row>
     <row r="9" spans="1:58" s="4" customFormat="1">
@@ -3839,10 +3839,10 @@
         <v>1.643487404080764E-07</v>
       </c>
       <c r="AT9" s="4">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="AU9" s="4">
-        <v>0.375</v>
+        <v>4</v>
       </c>
       <c r="AV9" s="4" t="s">
         <v>123</v>
@@ -4012,22 +4012,22 @@
         <v>3.011662274360131E-08</v>
       </c>
       <c r="AT10">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="AU10">
-        <v>0.375</v>
+        <v>4</v>
       </c>
       <c r="AV10">
-        <v>1.0759</v>
+        <v>1.0689</v>
       </c>
       <c r="AW10">
-        <v>0.0084484013</v>
+        <v>0.009554396600000001</v>
       </c>
       <c r="AX10">
-        <v>0.008628000993490665</v>
+        <v>0.009445363760939006</v>
       </c>
       <c r="AY10">
-        <v>0.7852403847941258</v>
+        <v>0.89385317616241</v>
       </c>
       <c r="AZ10" t="s">
         <v>29</v>
@@ -4036,19 +4036,19 @@
         <v>105.5</v>
       </c>
       <c r="BB10">
-        <v>12.31188978331035</v>
+        <v>12.31164657147083</v>
       </c>
       <c r="BC10">
-        <v>0.6271460124875351</v>
+        <v>0.6271336428673672</v>
       </c>
       <c r="BD10">
-        <v>1017.9</v>
+        <v>1010.9</v>
       </c>
       <c r="BE10">
-        <v>4.314000496745333</v>
+        <v>4.722681880469503</v>
       </c>
       <c r="BF10">
-        <v>0.8019333575137712</v>
+        <v>0.8836527047374877</v>
       </c>
     </row>
     <row r="11" spans="1:58" s="4" customFormat="1">
@@ -4188,10 +4188,10 @@
         <v>1.372970755827675E-07</v>
       </c>
       <c r="AT11" s="4">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="AU11" s="4">
-        <v>0.375</v>
+        <v>4</v>
       </c>
       <c r="AV11" s="4" t="s">
         <v>123</v>
@@ -4349,10 +4349,10 @@
         <v>1.6808</v>
       </c>
       <c r="AP12">
-        <v>0.0356</v>
+        <v>0.0358</v>
       </c>
       <c r="AQ12">
-        <v>2.118039029033794</v>
+        <v>2.129938124702523</v>
       </c>
       <c r="AR12">
         <v>0.0005670231216164175</v>
@@ -4361,22 +4361,22 @@
         <v>1.505213966297934E-06</v>
       </c>
       <c r="AT12">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="AU12">
-        <v>0.375</v>
+        <v>4</v>
       </c>
       <c r="AV12">
-        <v>1.6351</v>
+        <v>1.1929</v>
       </c>
       <c r="AW12">
-        <v>0.041956368</v>
+        <v>0.2488815794</v>
       </c>
       <c r="AX12">
-        <v>0.04231339367728365</v>
+        <v>0.247089538595463</v>
       </c>
       <c r="AY12">
-        <v>2.565981774814996</v>
+        <v>20.86357443205633</v>
       </c>
       <c r="AZ12" t="s">
         <v>30</v>
@@ -4385,19 +4385,19 @@
         <v>117</v>
       </c>
       <c r="BB12">
-        <v>16.04774249389801</v>
+        <v>16.02772876672674</v>
       </c>
       <c r="BC12">
-        <v>1.718074459126465</v>
+        <v>1.715967661765083</v>
       </c>
       <c r="BD12">
-        <v>1577.1</v>
+        <v>1134.9</v>
       </c>
       <c r="BE12">
-        <v>21.15669683864182</v>
+        <v>123.5447692977315</v>
       </c>
       <c r="BF12">
-        <v>2.587816872196419</v>
+        <v>20.71334886373234</v>
       </c>
     </row>
     <row r="13" spans="1:58" s="4" customFormat="1">
@@ -4537,10 +4537,10 @@
         <v>1.532688954362082E-07</v>
       </c>
       <c r="AT13" s="4">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="AU13" s="4">
-        <v>0.375</v>
+        <v>4</v>
       </c>
       <c r="AV13" s="4" t="s">
         <v>123</v>
@@ -4698,10 +4698,10 @@
         <v>1.5133</v>
       </c>
       <c r="AP14">
-        <v>0.0183</v>
+        <v>0.0182</v>
       </c>
       <c r="AQ14">
-        <v>1.209277737395097</v>
+        <v>1.202669662327364</v>
       </c>
       <c r="AR14">
         <v>2.072625983253501E-05</v>
@@ -4710,22 +4710,22 @@
         <v>5.894023079823428E-08</v>
       </c>
       <c r="AT14">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="AU14">
-        <v>0.375</v>
+        <v>4</v>
       </c>
       <c r="AV14">
-        <v>1.5116</v>
+        <v>1.4955</v>
       </c>
       <c r="AW14">
-        <v>0.0179162468</v>
+        <v>0.0199312423</v>
       </c>
       <c r="AX14">
-        <v>0.01814612811226169</v>
+        <v>0.02018910639048038</v>
       </c>
       <c r="AY14">
-        <v>1.185250516009526</v>
+        <v>1.332747729856235</v>
       </c>
       <c r="AZ14" t="s">
         <v>31</v>
@@ -4734,19 +4734,19 @@
         <v>162.5</v>
       </c>
       <c r="BB14">
-        <v>16.78701098891804</v>
+        <v>16.78624828561402</v>
       </c>
       <c r="BC14">
-        <v>1.185828181284291</v>
+        <v>1.185774376371707</v>
       </c>
       <c r="BD14">
-        <v>1453.6</v>
+        <v>1437.5</v>
       </c>
       <c r="BE14">
-        <v>9.073064056130844</v>
+        <v>10.09455319524019</v>
       </c>
       <c r="BF14">
-        <v>1.200458329734168</v>
+        <v>1.349990397223697</v>
       </c>
     </row>
     <row r="15" spans="1:58" s="4" customFormat="1">
@@ -4886,10 +4886,10 @@
         <v>1.370332177580049E-07</v>
       </c>
       <c r="AT15" s="4">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="AU15" s="4">
-        <v>0.375</v>
+        <v>4</v>
       </c>
       <c r="AV15" s="4" t="s">
         <v>123</v>
@@ -5047,10 +5047,10 @@
         <v>0.6534</v>
       </c>
       <c r="AP16">
-        <v>0.0071</v>
+        <v>0.007</v>
       </c>
       <c r="AQ16">
-        <v>1.086623813896541</v>
+        <v>1.071319253137435</v>
       </c>
       <c r="AR16">
         <v>9.445960275979715E-05</v>
@@ -5059,22 +5059,22 @@
         <v>1.72275360759849E-07</v>
       </c>
       <c r="AT16">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="AU16">
-        <v>0.375</v>
+        <v>4</v>
       </c>
       <c r="AV16">
-        <v>0.6457000000000001</v>
+        <v>0.5717</v>
       </c>
       <c r="AW16">
-        <v>0.0073435176</v>
+        <v>0.0418541857</v>
       </c>
       <c r="AX16">
-        <v>0.007350994470444211</v>
+        <v>0.04133340390730402</v>
       </c>
       <c r="AY16">
-        <v>1.137295586185535</v>
+        <v>7.321005020115445</v>
       </c>
       <c r="AZ16" t="s">
         <v>32</v>
@@ -5083,19 +5083,19 @@
         <v>36</v>
       </c>
       <c r="BB16">
-        <v>9.248987971116945</v>
+        <v>9.247056684056117</v>
       </c>
       <c r="BC16">
-        <v>0.6285082146881845</v>
+        <v>0.6283778954866831</v>
       </c>
       <c r="BD16">
-        <v>587.7</v>
+        <v>513.6999999999999</v>
       </c>
       <c r="BE16">
-        <v>3.675497235222105</v>
+        <v>20.66670195365201</v>
       </c>
       <c r="BF16">
-        <v>1.138453534217781</v>
+        <v>7.229911475827186</v>
       </c>
     </row>
     <row r="17" spans="1:58" s="4" customFormat="1">
@@ -5235,10 +5235,10 @@
         <v>1.370332177580049E-07</v>
       </c>
       <c r="AT17" s="4">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="AU17" s="4">
-        <v>0.375</v>
+        <v>4</v>
       </c>
       <c r="AV17" s="4" t="s">
         <v>123</v>
@@ -5287,7 +5287,7 @@
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" customWidth="1"/>
@@ -5300,7 +5300,7 @@
     <col min="14" max="14" width="8.7109375" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
     <col min="18" max="18" width="19.7109375" customWidth="1"/>
     <col min="19" max="19" width="6.7109375" customWidth="1"/>
   </cols>
@@ -5366,7 +5366,7 @@
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1">
       <c r="C2" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>109</v>
@@ -5425,10 +5425,10 @@
         <v>25</v>
       </c>
       <c r="C3" s="4">
-        <v>13701.18282804834</v>
+        <v>13.70118282804834</v>
       </c>
       <c r="D3" s="4">
-        <v>1.449630221586742</v>
+        <v>0.001449630221586743</v>
       </c>
       <c r="E3" s="4">
         <v>0.9624555902429579</v>
@@ -5481,10 +5481,10 @@
         <v>26</v>
       </c>
       <c r="C4">
-        <v>1186.316720206925</v>
+        <v>1.186316720206925</v>
       </c>
       <c r="D4">
-        <v>0.04775060295905169</v>
+        <v>4.775060295905169E-05</v>
       </c>
       <c r="E4">
         <v>0.02083874994078009</v>
@@ -5514,19 +5514,19 @@
         <v>0.4263</v>
       </c>
       <c r="N4">
-        <v>0.0078</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="O4">
-        <v>0.4258</v>
+        <v>0.4213</v>
       </c>
       <c r="P4">
-        <v>0.0068401855</v>
+        <v>0.0071802908</v>
       </c>
       <c r="Q4">
-        <v>12.83523755656005</v>
+        <v>12.83507455944778</v>
       </c>
       <c r="R4">
-        <v>0.6679826943192309</v>
+        <v>0.6679742161634127</v>
       </c>
       <c r="S4">
         <v>19</v>
@@ -5540,10 +5540,10 @@
         <v>25</v>
       </c>
       <c r="C5" s="4">
-        <v>13699.33853789272</v>
+        <v>13.69933853789272</v>
       </c>
       <c r="D5" s="4">
-        <v>1.423106824204759</v>
+        <v>0.001423106824204759</v>
       </c>
       <c r="E5" s="4">
         <v>0.9559448559649528</v>
@@ -5596,10 +5596,10 @@
         <v>27</v>
       </c>
       <c r="C6">
-        <v>980.1591795303184</v>
+        <v>0.9801591795303184</v>
       </c>
       <c r="D6">
-        <v>0.0487301575619043</v>
+        <v>4.87301575619043E-05</v>
       </c>
       <c r="E6">
         <v>0.05518344747238442</v>
@@ -5629,19 +5629,19 @@
         <v>0.8273</v>
       </c>
       <c r="N6">
-        <v>0.008699999999999999</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="O6">
-        <v>0.8258</v>
+        <v>0.8114</v>
       </c>
       <c r="P6">
-        <v>0.0081047898</v>
+        <v>0.0113479214</v>
       </c>
       <c r="Q6">
-        <v>10.61319664215399</v>
+        <v>10.61276535539819</v>
       </c>
       <c r="R6">
-        <v>0.8523278218228314</v>
+        <v>0.8522932191132148</v>
       </c>
       <c r="S6">
         <v>52</v>
@@ -5655,10 +5655,10 @@
         <v>25</v>
       </c>
       <c r="C7" s="4">
-        <v>13699.15089929962</v>
+        <v>13.69915089929962</v>
       </c>
       <c r="D7" s="4">
-        <v>1.614191900461489</v>
+        <v>0.001614191900461489</v>
       </c>
       <c r="E7" s="4">
         <v>0.9586955389739225</v>
@@ -5691,13 +5691,13 @@
         <v>124</v>
       </c>
       <c r="O7" s="4">
-        <v>683.3022</v>
+        <v>683.284</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>124</v>
       </c>
       <c r="Q7" s="4">
-        <v>-3.206656233653157</v>
+        <v>-3.206491539234178</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>124</v>
@@ -5711,10 +5711,10 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>1050.386684779172</v>
+        <v>1.050386684779172</v>
       </c>
       <c r="D8">
-        <v>0.0595081833313798</v>
+        <v>5.95081833313798E-05</v>
       </c>
       <c r="E8">
         <v>0.06031321355512585</v>
@@ -5744,19 +5744,19 @@
         <v>0.8875999999999999</v>
       </c>
       <c r="N8">
-        <v>0.0094</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="O8">
-        <v>0.886</v>
+        <v>0.8713</v>
       </c>
       <c r="P8">
-        <v>0.00898766</v>
+        <v>0.0122165271</v>
       </c>
       <c r="Q8">
-        <v>10.37136315496444</v>
+        <v>10.37093291533475</v>
       </c>
       <c r="R8">
-        <v>0.661610616695081</v>
+        <v>0.661583215145599</v>
       </c>
       <c r="S8">
         <v>69</v>
@@ -5770,10 +5770,10 @@
         <v>25</v>
       </c>
       <c r="C9" s="4">
-        <v>13698.50581832</v>
+        <v>13.69850581832</v>
       </c>
       <c r="D9" s="4">
-        <v>1.772333129394309</v>
+        <v>0.001772333129394309</v>
       </c>
       <c r="E9" s="4">
         <v>0.9560686077791912</v>
@@ -5826,10 +5826,10 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>1131.860529726503</v>
+        <v>1.131860529726503</v>
       </c>
       <c r="D10">
-        <v>0.05667916986329242</v>
+        <v>5.667916986329242E-05</v>
       </c>
       <c r="E10">
         <v>0.03099712229933367</v>
@@ -5862,16 +5862,16 @@
         <v>0.0092</v>
       </c>
       <c r="O10">
-        <v>1.0759</v>
+        <v>1.0689</v>
       </c>
       <c r="P10">
-        <v>0.0084484013</v>
+        <v>0.009554396600000001</v>
       </c>
       <c r="Q10">
-        <v>12.31188978331035</v>
+        <v>12.31164657147083</v>
       </c>
       <c r="R10">
-        <v>0.6271460124875351</v>
+        <v>0.6271336428673672</v>
       </c>
       <c r="S10">
         <v>105.5</v>
@@ -5885,10 +5885,10 @@
         <v>25</v>
       </c>
       <c r="C11" s="4">
-        <v>13697.97452749289</v>
+        <v>13.69797452749289</v>
       </c>
       <c r="D11" s="4">
-        <v>2.200848263931515</v>
+        <v>0.002200848263931516</v>
       </c>
       <c r="E11" s="4">
         <v>0.9550217955752691</v>
@@ -5941,10 +5941,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>526.8169011439809</v>
+        <v>0.5268169011439808</v>
       </c>
       <c r="D12">
-        <v>0.03435009050826131</v>
+        <v>3.435009050826131E-05</v>
       </c>
       <c r="E12">
         <v>0.9129443331388273</v>
@@ -5974,19 +5974,19 @@
         <v>1.6808</v>
       </c>
       <c r="N12">
-        <v>0.0356</v>
+        <v>0.0358</v>
       </c>
       <c r="O12">
-        <v>1.6351</v>
+        <v>1.1929</v>
       </c>
       <c r="P12">
-        <v>0.041956368</v>
+        <v>0.2488815794</v>
       </c>
       <c r="Q12">
-        <v>16.04774249389801</v>
+        <v>16.02772876672674</v>
       </c>
       <c r="R12">
-        <v>1.718074459126465</v>
+        <v>1.715967661765083</v>
       </c>
       <c r="S12">
         <v>117</v>
@@ -6000,10 +6000,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="4">
-        <v>13698.12723072646</v>
+        <v>13.69812723072646</v>
       </c>
       <c r="D13" s="4">
-        <v>1.328377354164738</v>
+        <v>0.001328377354164738</v>
       </c>
       <c r="E13" s="4">
         <v>0.9629036057651643</v>
@@ -6056,10 +6056,10 @@
         <v>31</v>
       </c>
       <c r="C14">
-        <v>632.4106757473838</v>
+        <v>0.6324106757473839</v>
       </c>
       <c r="D14">
-        <v>0.03160028408937891</v>
+        <v>3.160028408937892E-05</v>
       </c>
       <c r="E14">
         <v>0.0400593557242888</v>
@@ -6089,19 +6089,19 @@
         <v>1.5133</v>
       </c>
       <c r="N14">
-        <v>0.0183</v>
+        <v>0.0182</v>
       </c>
       <c r="O14">
-        <v>1.5116</v>
+        <v>1.4955</v>
       </c>
       <c r="P14">
-        <v>0.0179162468</v>
+        <v>0.0199312423</v>
       </c>
       <c r="Q14">
-        <v>16.78701098891804</v>
+        <v>16.78624828561402</v>
       </c>
       <c r="R14">
-        <v>1.185828181284291</v>
+        <v>1.185774376371707</v>
       </c>
       <c r="S14">
         <v>162.5</v>
@@ -6115,10 +6115,10 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>13697.98554924028</v>
+        <v>13.69798554924028</v>
       </c>
       <c r="D15" s="4">
-        <v>1.491959248085548</v>
+        <v>0.001491959248085548</v>
       </c>
       <c r="E15" s="4">
         <v>0.9642822974400372</v>
@@ -6171,10 +6171,10 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>1771.327669508883</v>
+        <v>1.771327669508882</v>
       </c>
       <c r="D16">
-        <v>0.08912990943670092</v>
+        <v>8.912990943670092E-05</v>
       </c>
       <c r="E16">
         <v>0.5113624697152432</v>
@@ -6204,19 +6204,19 @@
         <v>0.6534</v>
       </c>
       <c r="N16">
-        <v>0.0071</v>
+        <v>0.007</v>
       </c>
       <c r="O16">
-        <v>0.6457000000000001</v>
+        <v>0.5717</v>
       </c>
       <c r="P16">
-        <v>0.0073435176</v>
+        <v>0.0418541857</v>
       </c>
       <c r="Q16">
-        <v>9.248987971116945</v>
+        <v>9.247056684056117</v>
       </c>
       <c r="R16">
-        <v>0.6285082146881845</v>
+        <v>0.6283778954866831</v>
       </c>
       <c r="S16" t="s">
         <v>36</v>
@@ -6230,10 +6230,10 @@
         <v>25</v>
       </c>
       <c r="C17" s="4">
-        <v>13697.98554924028</v>
+        <v>13.69798554924028</v>
       </c>
       <c r="D17" s="4">
-        <v>1.491959248085548</v>
+        <v>0.001491959248085548</v>
       </c>
       <c r="E17" s="4">
         <v>0.9642822974400372</v>
